--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -9508,7 +9508,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>180.1200459003448</v>
+        <v>600.4644877910614</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -472,28 +472,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100.2709882873295</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100.264810744268</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100.2541559497565</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100.2713649047822</v>
+        <v>5.541579022186909</v>
       </c>
       <c r="E2" t="n">
-        <v>100.2606351108589</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2733030017892</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.2800909183208</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>103.8579951594437</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -559,28 +559,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.729562000944425</v>
+        <v>82.55933952338071</v>
       </c>
       <c r="B2" t="n">
-        <v>3.729562000480082</v>
+        <v>165.1186790714376</v>
       </c>
       <c r="C2" t="n">
-        <v>3.729562000480078</v>
+        <v>41.27966976411854</v>
       </c>
       <c r="D2" t="n">
-        <v>3.729561999532959</v>
+        <v>41.27966975961735</v>
       </c>
       <c r="E2" t="n">
-        <v>3.729561999997306</v>
+        <v>660.4747162163161</v>
       </c>
       <c r="F2" t="n">
-        <v>3.729562000480082</v>
+        <v>165.118678926663</v>
       </c>
       <c r="G2" t="n">
-        <v>3.729561999997303</v>
+        <v>165.1186790495671</v>
       </c>
       <c r="H2" t="n">
-        <v>29.83649600190955</v>
+        <v>165.1186790495671</v>
       </c>
     </row>
   </sheetData>
@@ -654,25 +654,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.71206017149762</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71296157326548</v>
+        <v>3.00944912838124e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>29.71104764773819</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.70984108326675</v>
+        <v>1.185948866153425e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>29.72163055209077</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29.72198851648109</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.71157103220798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.71206017149762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.70379187925403</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.71531790422872</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.71045051544271</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29.72005756102127</v>
+        <v>50.60708628667947</v>
       </c>
       <c r="H3" t="n">
-        <v>29.7201507641629</v>
+        <v>47.5758476310244</v>
       </c>
       <c r="I3" t="n">
-        <v>29.70691669388894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -713,28 +713,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.71296157326548</v>
+        <v>3.00944912838124e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>29.70379187925403</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.71481097217745</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.70827349801583</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>48.08136804587951</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>29.72007519009685</v>
-      </c>
       <c r="I4" t="n">
-        <v>59.40752278766345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -744,28 +744,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.71104764773819</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.71531790422872</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.71481097217745</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.71015860125624</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.7185197123696</v>
+        <v>40.52560710199968</v>
       </c>
       <c r="H5" t="n">
-        <v>29.71872928482311</v>
+        <v>37.50980753434075</v>
       </c>
       <c r="I5" t="n">
-        <v>29.71326968603702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -775,28 +775,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.70984108326675</v>
+        <v>1.185948866153425e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>29.71045051544271</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.70827349801583</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.71015860125624</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.71944006679782</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>29.7195836210833</v>
+        <v>46.90895401934973</v>
       </c>
       <c r="I6" t="n">
-        <v>29.70264683584971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -806,28 +806,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.72163055209077</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.72005756102127</v>
+        <v>50.60708628667947</v>
       </c>
       <c r="D7" t="n">
+        <v>48.08136804587951</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.52560710199968</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29.7185197123696</v>
-      </c>
-      <c r="F7" t="n">
-        <v>29.71944006679782</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.69890264259435</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.42717946966477</v>
+        <v>44.02075626696739</v>
       </c>
     </row>
     <row r="8">
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.72198851648109</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7201507641629</v>
+        <v>47.5758476310244</v>
       </c>
       <c r="D8" t="n">
-        <v>29.72007519009685</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.71872928482311</v>
+        <v>37.50980753434075</v>
       </c>
       <c r="F8" t="n">
-        <v>29.7195836210833</v>
+        <v>46.90895401934973</v>
       </c>
       <c r="G8" t="n">
-        <v>29.69890264259435</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>29.71987581739463</v>
+        <v>46.99647783363517</v>
       </c>
     </row>
     <row r="9">
@@ -868,25 +868,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.71157103220798</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.70691669388894</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>59.40752278766345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29.71326968603702</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>29.70264683584971</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>59.42717946966477</v>
+        <v>44.02075626696739</v>
       </c>
       <c r="H9" t="n">
-        <v>29.71987581739463</v>
+        <v>46.99647783363517</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.723776676954003e-10</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.735573999176886</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.6915149453169397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.322215056504433e-10</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6988626845468587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.5890396992275654</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.5452050525116429</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.6818216466712483</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.735573999176886</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.6988626845468587</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.5890396992275654</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.639841692340371</v>
       </c>
     </row>
     <row r="8">
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.923612047427525e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6915149453169397</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.5452050525116428</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.6818216466712482</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.6830938053118871</v>
       </c>
     </row>
     <row r="9">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.6398416923403709</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.6830938053118871</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1272,25 +1272,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.9999999998276223</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1300,28 +1300,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.264426000823114</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.3084850546830603</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1331,28 +1331,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9999999992677785</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.3011373154531413</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1362,28 +1362,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.4109603007724346</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.4547949474883571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1393,28 +1393,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.3181783533287517</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1424,28 +1424,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.264426000823114</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.3011373154531413</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.4109603007724346</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.360158307659629</v>
       </c>
     </row>
     <row r="8">
@@ -1455,28 +1455,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.999999998076388</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.3084850546830603</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.4547949474883572</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.3181783533287518</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.3169061946881129</v>
       </c>
     </row>
     <row r="9">
@@ -1486,25 +1486,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.3601583076596291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.3169061946881129</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1584,11 +1584,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>1.113306704466364e-10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -1604,10 +1625,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,14 +1666,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
       </c>
       <c r="I4" t="n">
-        <v>-6.038151544039162e-11</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1647,11 +1707,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.113306704466364e-10</v>
+      </c>
+      <c r="G5" t="n">
+        <v/>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1662,19 +1743,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000062525</v>
+        <v/>
       </c>
       <c r="J6" t="n">
-        <v>-6.22517408032704e-11</v>
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>1.938512997960721e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1685,16 +1784,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
       <c r="J7" t="n">
-        <v>1.000000000062252</v>
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>-1.938512997960721e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1705,16 +1825,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v>1.436942421719236e-10</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1725,16 +1866,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1745,16 +1907,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1765,16 +1948,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -1785,16 +1989,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.436942421719236e-10</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.938512997960721e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1805,15 +2030,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,16 +2071,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v>1.436942421719236e-10</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1845,16 +2112,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>-1.938512997960721e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1865,16 +2153,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.436942421719236e-10</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1885,16 +2194,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v>1.938512997960721e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1905,16 +2235,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.436942421719236e-10</v>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -1925,16 +2276,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1945,16 +2317,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.113306704466364e-10</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+      <c r="H20" t="n">
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -1965,190 +2358,376 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.436942421719236e-10</v>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+      <c r="H22" t="n">
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v>-3.04059388491093e-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+      <c r="H23" t="n">
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D24" t="n">
+        <v/>
+      </c>
+      <c r="E24" t="n">
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.038151544039162e-11</v>
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E26" t="n">
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+      <c r="H26" t="n">
+        <v/>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E27" t="n">
+        <v/>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+      <c r="H27" t="n">
+        <v/>
+      </c>
+      <c r="I27" t="n">
+        <v/>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E28" t="n">
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+      <c r="H28" t="n">
+        <v/>
+      </c>
+      <c r="I28" t="n">
+        <v/>
+      </c>
+      <c r="J28" t="n">
+        <v/>
+      </c>
+      <c r="K28" t="n">
+        <v>-3.04059388491093e-10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E29" t="n">
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.608120344079468e-10</v>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+      <c r="H29" t="n">
+        <v/>
+      </c>
+      <c r="I29" t="n">
+        <v/>
+      </c>
+      <c r="J29" t="n">
+        <v/>
+      </c>
+      <c r="K29" t="n">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2157,13 +2736,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E30" t="n">
+        <v/>
+      </c>
+      <c r="F30" t="n">
+        <v>1.608120344079468e-10</v>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+      <c r="H30" t="n">
+        <v/>
+      </c>
+      <c r="I30" t="n">
+        <v/>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2173,17 +2773,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E31" t="n">
+        <v/>
+      </c>
+      <c r="F31" t="n">
+        <v>1.608120344079468e-10</v>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+      <c r="H31" t="n">
+        <v/>
+      </c>
+      <c r="I31" t="n">
+        <v/>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2193,37 +2814,79 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v/>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v/>
+      </c>
+      <c r="I32" t="n">
+        <v/>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D33" t="n">
+        <v/>
+      </c>
+      <c r="E33" t="n">
+        <v/>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+      <c r="H33" t="n">
+        <v/>
+      </c>
+      <c r="I33" t="n">
+        <v/>
+      </c>
+      <c r="J33" t="n">
+        <v/>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2233,22 +2896,43 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E34" t="n">
+        <v/>
+      </c>
+      <c r="F34" t="n">
+        <v>1.608120344079468e-10</v>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+      <c r="H34" t="n">
+        <v/>
+      </c>
+      <c r="I34" t="n">
+        <v/>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2257,18 +2941,39 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E35" t="n">
+        <v/>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v/>
+      </c>
+      <c r="I35" t="n">
+        <v/>
+      </c>
+      <c r="J35" t="n">
+        <v/>
+      </c>
+      <c r="K35" t="n">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2278,160 +2983,325 @@
       </c>
       <c r="D36" t="n">
         <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v/>
+      </c>
+      <c r="F36" t="n">
+        <v/>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+      <c r="H36" t="n">
+        <v/>
+      </c>
+      <c r="I36" t="n">
+        <v/>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E37" t="n">
+        <v/>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+      <c r="H37" t="n">
+        <v/>
+      </c>
+      <c r="I37" t="n">
+        <v/>
       </c>
       <c r="J37" t="n">
-        <v>-6.22517408032704e-11</v>
+        <v/>
+      </c>
+      <c r="K37" t="n">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E38" t="n">
+        <v/>
+      </c>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
+      <c r="I38" t="n">
+        <v/>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v/>
+      </c>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
+      <c r="I39" t="n">
+        <v/>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E40" t="n">
+        <v>7.322214525950287e-10</v>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="n">
+        <v/>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9999999992677785</v>
+      </c>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v/>
+      </c>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v>1.568189114747107e-10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E42" t="n">
+        <v/>
+      </c>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+      <c r="H42" t="n">
+        <v/>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v/>
+      </c>
+      <c r="K42" t="n">
+        <v>-1.568189114747107e-10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D43" t="n">
+        <v/>
+      </c>
+      <c r="E43" t="n">
+        <v/>
+      </c>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+      <c r="H43" t="n">
+        <v/>
+      </c>
+      <c r="I43" t="n">
+        <v/>
+      </c>
+      <c r="J43" t="n">
+        <v/>
+      </c>
+      <c r="K43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2440,58 +3310,121 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E44" t="n">
+        <v/>
+      </c>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+      <c r="H44" t="n">
+        <v>2.307898410689769e-10</v>
+      </c>
+      <c r="I44" t="n">
+        <v/>
+      </c>
+      <c r="J44" t="n">
+        <v/>
+      </c>
+      <c r="K44" t="n">
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v/>
+      </c>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+      <c r="H45" t="n">
+        <v/>
+      </c>
+      <c r="I45" t="n">
+        <v/>
+      </c>
+      <c r="J45" t="n">
+        <v/>
+      </c>
+      <c r="K45" t="n">
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9999999992677785</v>
+      </c>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v/>
+      </c>
+      <c r="I46" t="n">
+        <v/>
+      </c>
+      <c r="J46" t="n">
+        <v/>
+      </c>
+      <c r="K46" t="n">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2500,18 +3433,39 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E47" t="n">
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+      <c r="H47" t="n">
+        <v>2.307898410689769e-10</v>
+      </c>
+      <c r="I47" t="n">
+        <v/>
+      </c>
+      <c r="J47" t="n">
+        <v/>
+      </c>
+      <c r="K47" t="n">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2520,113 +3474,239 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E48" t="n">
+        <v/>
+      </c>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+      <c r="H48" t="n">
+        <v/>
+      </c>
+      <c r="I48" t="n">
+        <v/>
+      </c>
+      <c r="J48" t="n">
+        <v/>
+      </c>
+      <c r="K48" t="n">
+        <v>-1.568189114747107e-10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v/>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+      <c r="H49" t="n">
+        <v>-4.911116385302045e-10</v>
+      </c>
+      <c r="I49" t="n">
+        <v/>
+      </c>
+      <c r="J49" t="n">
+        <v/>
+      </c>
+      <c r="K49" t="n">
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E50" t="n">
+        <v/>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+      <c r="H50" t="n">
+        <v>-2.603217974612276e-10</v>
+      </c>
+      <c r="I50" t="n">
+        <v/>
+      </c>
+      <c r="J50" t="n">
+        <v/>
+      </c>
+      <c r="K50" t="n">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+      <c r="I51" t="n">
+        <v/>
+      </c>
+      <c r="J51" t="n">
+        <v/>
+      </c>
+      <c r="K51" t="n">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+      <c r="H52" t="n">
+        <v/>
+      </c>
+      <c r="I52" t="n">
+        <v/>
+      </c>
+      <c r="J52" t="n">
+        <v/>
+      </c>
+      <c r="K52" t="n">
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v/>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+      <c r="G53" t="n">
+        <v/>
+      </c>
+      <c r="H53" t="n">
+        <v>2.307898410689769e-10</v>
+      </c>
+      <c r="I53" t="n">
+        <v/>
+      </c>
+      <c r="J53" t="n">
+        <v/>
+      </c>
+      <c r="K53" t="n">
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2636,197 +3716,398 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v/>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F54" t="n">
+        <v>1.000000000043742</v>
+      </c>
+      <c r="G54" t="n">
+        <v/>
+      </c>
+      <c r="H54" t="n">
+        <v/>
       </c>
       <c r="I54" t="n">
-        <v>-6.472339026114573e-11</v>
+        <v/>
+      </c>
+      <c r="J54" t="n">
+        <v/>
+      </c>
+      <c r="K54" t="n">
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v/>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+      <c r="G55" t="n">
+        <v/>
+      </c>
+      <c r="H55" t="n">
+        <v/>
+      </c>
+      <c r="I55" t="n">
+        <v/>
+      </c>
+      <c r="J55" t="n">
+        <v/>
+      </c>
+      <c r="K55" t="n">
+        <v>3.384442347846112e-10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v/>
+      </c>
+      <c r="H56" t="n">
+        <v/>
+      </c>
+      <c r="I56" t="n">
+        <v/>
+      </c>
+      <c r="J56" t="n">
+        <v/>
+      </c>
+      <c r="K56" t="n">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D57" t="n">
+        <v/>
+      </c>
+      <c r="E57" t="n">
+        <v/>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+      <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-6.472339027505994e-11</v>
+        <v/>
+      </c>
+      <c r="J57" t="n">
+        <v/>
+      </c>
+      <c r="K57" t="n">
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v/>
+      </c>
+      <c r="E58" t="n">
+        <v/>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+      <c r="H58" t="n">
+        <v/>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+      <c r="K58" t="n">
+        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v/>
+      </c>
+      <c r="E59" t="n">
+        <v/>
+      </c>
+      <c r="F59" t="n">
+        <v/>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H59" t="n">
+        <v/>
+      </c>
+      <c r="I59" t="n">
+        <v/>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v/>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v/>
+      </c>
+      <c r="G60" t="n">
+        <v/>
       </c>
       <c r="H60" t="n">
+        <v/>
+      </c>
+      <c r="I60" t="n">
+        <v/>
+      </c>
+      <c r="J60" t="n">
+        <v/>
+      </c>
+      <c r="K60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v/>
+      </c>
+      <c r="E61" t="n">
+        <v/>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+      <c r="H61" t="n">
+        <v/>
       </c>
       <c r="I61" t="n">
-        <v>1.000000000064723</v>
+        <v/>
+      </c>
+      <c r="J61" t="n">
+        <v/>
+      </c>
+      <c r="K61" t="n">
+        <v>3.384442347846112e-10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v/>
+      </c>
+      <c r="E62" t="n">
+        <v/>
+      </c>
+      <c r="F62" t="n">
+        <v/>
+      </c>
+      <c r="G62" t="n">
+        <v/>
+      </c>
+      <c r="H62" t="n">
+        <v/>
+      </c>
+      <c r="I62" t="n">
+        <v/>
       </c>
       <c r="J62" t="n">
+        <v/>
+      </c>
+      <c r="K62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v/>
+      </c>
+      <c r="E63" t="n">
+        <v/>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+      <c r="H63" t="n">
+        <v/>
       </c>
       <c r="I63" t="n">
-        <v>-6.722053469410128e-18</v>
+        <v/>
+      </c>
+      <c r="J63" t="n">
+        <v/>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -2835,67 +4116,130 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
+      <c r="D64" t="n">
+        <v/>
       </c>
       <c r="E64" t="n">
         <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v/>
+      </c>
+      <c r="G64" t="n">
+        <v/>
+      </c>
+      <c r="H64" t="n">
+        <v/>
+      </c>
+      <c r="I64" t="n">
+        <v/>
+      </c>
+      <c r="J64" t="n">
+        <v/>
+      </c>
+      <c r="K64" t="n">
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v/>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v/>
+      </c>
+      <c r="H65" t="n">
+        <v/>
+      </c>
+      <c r="I65" t="n">
+        <v/>
+      </c>
+      <c r="J65" t="n">
+        <v/>
+      </c>
+      <c r="K65" t="n">
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v/>
       </c>
       <c r="E66" t="n">
+        <v/>
+      </c>
+      <c r="F66" t="n">
+        <v/>
+      </c>
+      <c r="G66" t="n">
+        <v/>
+      </c>
+      <c r="H66" t="n">
+        <v/>
+      </c>
+      <c r="I66" t="n">
+        <v/>
+      </c>
+      <c r="J66" t="n">
+        <v/>
+      </c>
+      <c r="K66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2905,62 +4249,125 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v/>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>-4.463667170576332e-10</v>
+      </c>
+      <c r="F67" t="n">
+        <v/>
+      </c>
+      <c r="G67" t="n">
+        <v/>
+      </c>
+      <c r="H67" t="n">
+        <v/>
+      </c>
+      <c r="I67" t="n">
+        <v/>
+      </c>
+      <c r="J67" t="n">
+        <v/>
+      </c>
+      <c r="K67" t="n">
+        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v/>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>4.463667170576332e-10</v>
+      </c>
+      <c r="F68" t="n">
+        <v/>
+      </c>
+      <c r="G68" t="n">
+        <v/>
+      </c>
+      <c r="H68" t="n">
+        <v/>
+      </c>
+      <c r="I68" t="n">
+        <v/>
+      </c>
+      <c r="J68" t="n">
+        <v/>
+      </c>
+      <c r="K68" t="n">
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v/>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>-4.463667170576332e-10</v>
+      </c>
+      <c r="F69" t="n">
+        <v/>
+      </c>
+      <c r="G69" t="n">
+        <v/>
+      </c>
+      <c r="H69" t="n">
+        <v/>
+      </c>
+      <c r="I69" t="n">
+        <v/>
+      </c>
+      <c r="J69" t="n">
+        <v/>
+      </c>
+      <c r="K69" t="n">
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2968,237 +4375,486 @@
           <t>i1</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F70" t="n">
+        <v/>
+      </c>
+      <c r="G70" t="n">
+        <v/>
+      </c>
+      <c r="H70" t="n">
+        <v/>
+      </c>
+      <c r="I70" t="n">
+        <v/>
+      </c>
+      <c r="J70" t="n">
+        <v/>
+      </c>
+      <c r="K70" t="n">
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
+      <c r="D71" t="n">
+        <v/>
       </c>
       <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v/>
+      </c>
+      <c r="H71" t="n">
+        <v/>
+      </c>
+      <c r="I71" t="n">
+        <v/>
+      </c>
+      <c r="J71" t="n">
+        <v/>
+      </c>
+      <c r="K71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v/>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F72" t="n">
+        <v/>
+      </c>
+      <c r="G72" t="n">
+        <v/>
+      </c>
+      <c r="H72" t="n">
+        <v/>
+      </c>
+      <c r="I72" t="n">
+        <v/>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v/>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F73" t="n">
+        <v/>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v/>
+      </c>
+      <c r="I73" t="n">
+        <v/>
+      </c>
+      <c r="J73" t="n">
+        <v/>
+      </c>
+      <c r="K73" t="n">
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v/>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F74" t="n">
+        <v/>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v/>
+      </c>
+      <c r="I74" t="n">
+        <v/>
+      </c>
+      <c r="J74" t="n">
+        <v/>
+      </c>
+      <c r="K74" t="n">
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
+      <c r="D75" t="n">
+        <v/>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F75" t="n">
+        <v/>
+      </c>
+      <c r="G75" t="n">
+        <v/>
+      </c>
+      <c r="H75" t="n">
+        <v/>
+      </c>
+      <c r="I75" t="n">
+        <v/>
+      </c>
+      <c r="J75" t="n">
+        <v>5.072582575620668e-10</v>
+      </c>
+      <c r="K75" t="n">
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v/>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F76" t="n">
+        <v/>
+      </c>
+      <c r="G76" t="n">
+        <v/>
+      </c>
+      <c r="H76" t="n">
+        <v/>
+      </c>
+      <c r="I76" t="n">
+        <v/>
+      </c>
+      <c r="J76" t="n">
+        <v>-5.072582575620668e-10</v>
+      </c>
+      <c r="K76" t="n">
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v/>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F77" t="n">
+        <v/>
+      </c>
+      <c r="G77" t="n">
+        <v/>
+      </c>
+      <c r="H77" t="n">
+        <v/>
+      </c>
+      <c r="I77" t="n">
+        <v/>
+      </c>
+      <c r="J77" t="n">
+        <v>-5.072582575620668e-10</v>
+      </c>
+      <c r="K77" t="n">
+        <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v/>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F78" t="n">
+        <v/>
+      </c>
+      <c r="G78" t="n">
+        <v/>
+      </c>
+      <c r="H78" t="n">
+        <v/>
       </c>
       <c r="I78" t="n">
-        <v>2.936520577105913e-19</v>
+        <v/>
+      </c>
+      <c r="J78" t="n">
+        <v>5.072582575620668e-10</v>
+      </c>
+      <c r="K78" t="n">
+        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>i6</t>
-        </is>
+      <c r="D79" t="n">
+        <v/>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F79" t="n">
+        <v/>
+      </c>
+      <c r="G79" t="n">
+        <v/>
+      </c>
+      <c r="H79" t="n">
+        <v/>
+      </c>
+      <c r="I79" t="n">
+        <v/>
+      </c>
+      <c r="J79" t="n">
+        <v>-5.072582575620668e-10</v>
+      </c>
+      <c r="K79" t="n">
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
+      <c r="D80" t="n">
+        <v/>
       </c>
       <c r="E80" t="n">
         <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v/>
+      </c>
+      <c r="G80" t="n">
+        <v/>
+      </c>
+      <c r="H80" t="n">
+        <v/>
+      </c>
+      <c r="I80" t="n">
+        <v/>
+      </c>
+      <c r="J80" t="n">
+        <v/>
+      </c>
+      <c r="K80" t="n">
+        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v/>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v/>
+      </c>
+      <c r="H81" t="n">
+        <v/>
+      </c>
+      <c r="I81" t="n">
+        <v/>
+      </c>
+      <c r="J81" t="n">
+        <v/>
+      </c>
+      <c r="K81" t="n">
+        <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3208,17 +4864,38 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v/>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F82" t="n">
+        <v/>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v/>
+      </c>
+      <c r="I82" t="n">
+        <v/>
+      </c>
+      <c r="J82" t="n">
+        <v/>
+      </c>
+      <c r="K82" t="n">
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3228,17 +4905,38 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v/>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F83" t="n">
+        <v/>
+      </c>
+      <c r="G83" t="n">
+        <v/>
+      </c>
+      <c r="H83" t="n">
+        <v/>
+      </c>
+      <c r="I83" t="n">
+        <v/>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3248,37 +4946,79 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v/>
       </c>
       <c r="E84" t="n">
+        <v/>
+      </c>
+      <c r="F84" t="n">
+        <v/>
+      </c>
+      <c r="G84" t="n">
+        <v/>
+      </c>
+      <c r="H84" t="n">
+        <v/>
+      </c>
+      <c r="I84" t="n">
+        <v/>
+      </c>
+      <c r="J84" t="n">
+        <v/>
+      </c>
+      <c r="K84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.923612102302309e-09</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F85" t="n">
+        <v/>
+      </c>
+      <c r="G85" t="n">
+        <v/>
+      </c>
+      <c r="H85" t="n">
+        <v/>
+      </c>
+      <c r="I85" t="n">
+        <v/>
+      </c>
+      <c r="J85" t="n">
+        <v/>
+      </c>
+      <c r="K85" t="n">
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3288,37 +5028,79 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.999999998076388</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F86" t="n">
+        <v/>
+      </c>
+      <c r="G86" t="n">
+        <v/>
+      </c>
+      <c r="H86" t="n">
+        <v/>
+      </c>
+      <c r="I86" t="n">
+        <v/>
+      </c>
+      <c r="J86" t="n">
+        <v/>
+      </c>
+      <c r="K86" t="n">
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
+      <c r="D87" t="n">
+        <v/>
       </c>
       <c r="E87" t="n">
         <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v/>
+      </c>
+      <c r="G87" t="n">
+        <v/>
+      </c>
+      <c r="H87" t="n">
+        <v/>
+      </c>
+      <c r="I87" t="n">
+        <v/>
+      </c>
+      <c r="J87" t="n">
+        <v/>
+      </c>
+      <c r="K87" t="n">
+        <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3328,17 +5110,38 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v/>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F88" t="n">
+        <v/>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v/>
+      </c>
+      <c r="I88" t="n">
+        <v/>
+      </c>
+      <c r="J88" t="n">
+        <v/>
+      </c>
+      <c r="K88" t="n">
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3348,17 +5151,38 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1.923612102302309e-09</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F89" t="n">
+        <v/>
+      </c>
+      <c r="G89" t="n">
+        <v/>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v/>
+      </c>
+      <c r="J89" t="n">
+        <v/>
+      </c>
+      <c r="K89" t="n">
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3368,17 +5192,38 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.999999998076388</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F90" t="n">
+        <v/>
+      </c>
+      <c r="G90" t="n">
+        <v/>
+      </c>
+      <c r="H90" t="n">
+        <v/>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v/>
+      </c>
+      <c r="K90" t="n">
+        <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3388,337 +5233,673 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v/>
       </c>
       <c r="E91" t="n">
+        <v/>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+      <c r="G91" t="n">
+        <v/>
+      </c>
+      <c r="H91" t="n">
+        <v/>
+      </c>
+      <c r="I91" t="n">
+        <v/>
+      </c>
+      <c r="J91" t="n">
+        <v/>
+      </c>
+      <c r="K91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v/>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F92" t="n">
+        <v/>
+      </c>
+      <c r="G92" t="n">
+        <v/>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v/>
+      </c>
+      <c r="J92" t="n">
+        <v/>
+      </c>
+      <c r="K92" t="n">
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v/>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F93" t="n">
+        <v>2.360867259116445e-10</v>
+      </c>
+      <c r="G93" t="n">
+        <v/>
+      </c>
+      <c r="H93" t="n">
+        <v/>
+      </c>
+      <c r="I93" t="n">
+        <v/>
+      </c>
+      <c r="J93" t="n">
+        <v/>
+      </c>
+      <c r="K93" t="n">
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>i1</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v/>
+      </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F94" t="n">
+        <v>5.055768904646228e-10</v>
+      </c>
+      <c r="G94" t="n">
+        <v/>
+      </c>
+      <c r="H94" t="n">
+        <v/>
+      </c>
+      <c r="I94" t="n">
+        <v/>
+      </c>
+      <c r="J94" t="n">
+        <v/>
+      </c>
+      <c r="K94" t="n">
+        <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v/>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F95" t="n">
+        <v/>
+      </c>
+      <c r="G95" t="n">
+        <v/>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v/>
+      </c>
+      <c r="J95" t="n">
+        <v/>
+      </c>
+      <c r="K95" t="n">
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1.000000000172378</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F96" t="n">
+        <v/>
+      </c>
+      <c r="G96" t="n">
+        <v/>
+      </c>
+      <c r="H96" t="n">
+        <v/>
+      </c>
+      <c r="I96" t="n">
+        <v/>
+      </c>
+      <c r="J96" t="n">
+        <v/>
+      </c>
+      <c r="K96" t="n">
+        <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
+      <c r="D97" t="n">
+        <v/>
       </c>
       <c r="E97" t="n">
         <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v/>
+      </c>
+      <c r="G97" t="n">
+        <v/>
+      </c>
+      <c r="H97" t="n">
+        <v/>
+      </c>
+      <c r="I97" t="n">
+        <v/>
+      </c>
+      <c r="J97" t="n">
+        <v/>
+      </c>
+      <c r="K97" t="n">
+        <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v/>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v/>
+      </c>
+      <c r="H98" t="n">
+        <v/>
+      </c>
+      <c r="I98" t="n">
+        <v/>
+      </c>
+      <c r="J98" t="n">
+        <v/>
+      </c>
+      <c r="K98" t="n">
+        <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>-1.72377759566348e-10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F99" t="n">
+        <v>-5.055768904646228e-10</v>
+      </c>
+      <c r="G99" t="n">
+        <v/>
+      </c>
+      <c r="H99" t="n">
+        <v/>
+      </c>
+      <c r="I99" t="n">
+        <v/>
+      </c>
+      <c r="J99" t="n">
+        <v/>
+      </c>
+      <c r="K99" t="n">
+        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.72377759566348e-10</v>
+      </c>
+      <c r="E100" t="n">
+        <v/>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>-5.055768904646228e-10</v>
+      </c>
+      <c r="G100" t="n">
+        <v/>
+      </c>
+      <c r="H100" t="n">
+        <v/>
+      </c>
+      <c r="I100" t="n">
+        <v/>
+      </c>
+      <c r="J100" t="n">
+        <v/>
+      </c>
+      <c r="K100" t="n">
+        <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v/>
+      </c>
+      <c r="E101" t="n">
+        <v/>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2.360867259116445e-10</v>
+      </c>
+      <c r="G101" t="n">
+        <v/>
+      </c>
+      <c r="H101" t="n">
+        <v/>
+      </c>
+      <c r="I101" t="n">
+        <v/>
+      </c>
+      <c r="J101" t="n">
+        <v/>
+      </c>
+      <c r="K101" t="n">
+        <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v/>
+      </c>
+      <c r="E102" t="n">
+        <v/>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>5.055768904646228e-10</v>
+      </c>
+      <c r="G102" t="n">
+        <v/>
+      </c>
+      <c r="H102" t="n">
+        <v/>
+      </c>
+      <c r="I102" t="n">
+        <v/>
+      </c>
+      <c r="J102" t="n">
+        <v/>
+      </c>
+      <c r="K102" t="n">
+        <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v/>
+      </c>
+      <c r="E103" t="n">
+        <v/>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G103" t="n">
+        <v/>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v/>
+      </c>
+      <c r="J103" t="n">
+        <v/>
+      </c>
+      <c r="K103" t="n">
+        <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0.9999999994944231</v>
+      </c>
+      <c r="G104" t="n">
+        <v/>
+      </c>
+      <c r="H104" t="n">
+        <v/>
+      </c>
+      <c r="I104" t="n">
+        <v/>
+      </c>
+      <c r="J104" t="n">
+        <v/>
+      </c>
+      <c r="K104" t="n">
+        <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v/>
+      </c>
+      <c r="E105" t="n">
+        <v/>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G105" t="n">
+        <v/>
+      </c>
+      <c r="H105" t="n">
+        <v/>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v/>
+      </c>
+      <c r="K105" t="n">
+        <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v/>
+      </c>
+      <c r="E106" t="n">
+        <v/>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G106" t="n">
+        <v/>
+      </c>
+      <c r="H106" t="n">
+        <v/>
+      </c>
+      <c r="I106" t="n">
+        <v/>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3728,17 +5909,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3748,107 +5929,110 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -3858,153 +6042,156 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>4.184066785777732e-16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>0.9999999999999996</v>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="n">
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4014,17 +6201,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4034,17 +6221,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4054,17 +6244,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4074,173 +6264,182 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4.184066785777732e-16</v>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9481,10 +11680,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="A1" t="n">
+        <v>3.843022498495116</v>
       </c>
     </row>
   </sheetData>
@@ -9508,7 +11705,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>600.4644877910614</v>
+        <v>238.0160000000033</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.541579022186909</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.99093652431063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -559,28 +559,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82.55933952338071</v>
+        <v>82.55933958697858</v>
       </c>
       <c r="B2" t="n">
-        <v>165.1186790714376</v>
+        <v>412.7966977178446</v>
       </c>
       <c r="C2" t="n">
-        <v>41.27966976411854</v>
+        <v>165.1186788982624</v>
       </c>
       <c r="D2" t="n">
-        <v>41.27966975961735</v>
+        <v>536.635706585334</v>
       </c>
       <c r="E2" t="n">
-        <v>660.4747162163161</v>
+        <v>371.5170276987209</v>
       </c>
       <c r="F2" t="n">
-        <v>165.118678926663</v>
+        <v>82.55933952348583</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1186790495671</v>
+        <v>2.854250069106137e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1186790495671</v>
+        <v>371.5170278180381</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.00944912838124e-09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.185948866153425e-08</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50.60708628667947</v>
+        <v>28.17704188467945</v>
       </c>
       <c r="H3" t="n">
-        <v>47.5758476310244</v>
+        <v>20.65093526060551</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.00944912838124e-09</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.447017094934841e-08</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.08136804587951</v>
+        <v>23.21271647117545</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.447017094934841e-08</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.29408373952029</v>
       </c>
       <c r="G5" t="n">
-        <v>40.52560710199968</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="H5" t="n">
-        <v>37.50980753434075</v>
+        <v>24.84525715597397</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.185948866153425e-08</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11.29408373952029</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>10.29038269761011</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>46.90895401934973</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -809,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.60708628667947</v>
+        <v>28.17704188467945</v>
       </c>
       <c r="D7" t="n">
-        <v>48.08136804587951</v>
+        <v>23.21271647117545</v>
       </c>
       <c r="E7" t="n">
-        <v>40.52560710199968</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.29038269761011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.02075626696739</v>
+        <v>16.76325641565834</v>
       </c>
     </row>
     <row r="8">
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5758476310244</v>
+        <v>20.65093526060551</v>
       </c>
       <c r="D8" t="n">
+        <v>16.19286578342044</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.84525715597397</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>37.50980753434075</v>
-      </c>
-      <c r="F8" t="n">
-        <v>46.90895401934973</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>46.99647783363517</v>
+        <v>21.62916981622616</v>
       </c>
     </row>
     <row r="9">
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.02075626696739</v>
+        <v>16.76325641565834</v>
       </c>
       <c r="H9" t="n">
-        <v>46.99647783363517</v>
+        <v>21.62916981622616</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.723776676954003e-10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.735573999176886</v>
+        <v>0.4095533037938159</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6915149453169397</v>
+        <v>0.3001613440129012</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.381137426648138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.322215056504433e-10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6988626845468587</v>
+        <v>0.3373968449461741</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.2353633041620161</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5890396992275654</v>
+        <v>0.2610268529069238</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5452050525116429</v>
+        <v>0.1969663056081541</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.149570712509763</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6818216466712483</v>
+        <v>0.1641595071539275</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1118,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.735573999176886</v>
+        <v>0.4095533037938158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6988626845468587</v>
+        <v>0.3373968339085351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5890396992275654</v>
+        <v>0.2610268529069238</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.149570712509763</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.639841692340371</v>
+        <v>0.2436539320015939</v>
       </c>
     </row>
     <row r="8">
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.923612047427525e-09</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6915149453169397</v>
+        <v>0.3001613440129011</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.235363304162016</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5452050525116428</v>
+        <v>0.1969663056081541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6818216466712482</v>
+        <v>0.1641595071539275</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6830938053118871</v>
+        <v>0.3143799832788472</v>
       </c>
     </row>
     <row r="9">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6398416923403709</v>
+        <v>0.2436539320015939</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6830938053118871</v>
+        <v>0.3143799832788473</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999998276223</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -1315,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.264426000823114</v>
+        <v>0.5904466962061841</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3084850546830603</v>
+        <v>0.6998386559870988</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000138114</v>
       </c>
     </row>
     <row r="4">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999992677785</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3011373154531413</v>
+        <v>0.6626031550538258</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.764636695837984</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4109603007724346</v>
+        <v>0.7389731470930763</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4547949474883571</v>
+        <v>0.8030336943918459</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.8504292874902371</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3181783533287517</v>
+        <v>0.8358404928460725</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.264426000823114</v>
+        <v>0.5904466962061842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3011373154531413</v>
+        <v>0.6626031660914649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4109603007724346</v>
+        <v>0.7389731470930763</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.8504292874902371</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.360158307659629</v>
+        <v>0.7563460679984061</v>
       </c>
     </row>
     <row r="8">
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999999998076388</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3084850546830603</v>
+        <v>0.6998386559870988</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.764636695837984</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4547949474883572</v>
+        <v>0.8030336943918459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3181783533287518</v>
+        <v>0.8358404928460725</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3169061946881129</v>
+        <v>0.6856200167211528</v>
       </c>
     </row>
     <row r="9">
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3601583076596291</v>
+        <v>0.7563460679984061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3169061946881129</v>
+        <v>0.6856200167211528</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v/>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.113306704466364e-10</v>
+        <v/>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
       <c r="J2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v/>
@@ -1632,7 +1632,7 @@
         <v/>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v/>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>9.189544117102367e-10</v>
       </c>
       <c r="K4" t="n">
         <v/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1717,7 +1717,7 @@
         <v/>
       </c>
       <c r="F5" t="n">
-        <v>-1.113306704466364e-10</v>
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -1729,7 +1729,7 @@
         <v/>
       </c>
       <c r="J5" t="n">
-        <v/>
+        <v>-9.189544117102367e-10</v>
       </c>
       <c r="K5" t="n">
         <v/>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1764,7 +1764,7 @@
         <v/>
       </c>
       <c r="H6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -1773,7 +1773,7 @@
         <v/>
       </c>
       <c r="K6" t="n">
-        <v>1.938512997960721e-10</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1784,19 +1784,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v/>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F7" t="n">
         <v/>
@@ -1811,10 +1811,10 @@
         <v/>
       </c>
       <c r="J7" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.938512997960721e-10</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1825,12 +1825,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1843,13 +1843,13 @@
         <v/>
       </c>
       <c r="G8" t="n">
-        <v>1.436942421719236e-10</v>
+        <v/>
       </c>
       <c r="H8" t="n">
         <v/>
       </c>
       <c r="I8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v/>
@@ -1866,19 +1866,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v/>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F9" t="n">
         <v/>
@@ -1893,7 +1893,7 @@
         <v/>
       </c>
       <c r="J9" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v/>
@@ -1907,22 +1907,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v/>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -1934,7 +1934,7 @@
         <v/>
       </c>
       <c r="J10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1972,10 +1972,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v/>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -2007,7 +2007,7 @@
         <v/>
       </c>
       <c r="G12" t="n">
-        <v>-1.436942421719236e-10</v>
+        <v/>
       </c>
       <c r="H12" t="n">
         <v/>
@@ -2016,10 +2016,10 @@
         <v/>
       </c>
       <c r="J12" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.938512997960721e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2057,10 +2057,10 @@
         <v/>
       </c>
       <c r="J13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="G14" t="n">
-        <v>1.436942421719236e-10</v>
+        <v/>
       </c>
       <c r="H14" t="n">
         <v/>
@@ -2098,7 +2098,7 @@
         <v/>
       </c>
       <c r="J14" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v/>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2127,7 +2127,7 @@
         <v/>
       </c>
       <c r="F15" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -2142,7 +2142,7 @@
         <v/>
       </c>
       <c r="K15" t="n">
-        <v>-1.938512997960721e-10</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2153,25 +2153,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v/>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F16" t="n">
         <v/>
       </c>
       <c r="G16" t="n">
-        <v>-1.436942421719236e-10</v>
+        <v/>
       </c>
       <c r="H16" t="n">
         <v/>
@@ -2180,10 +2180,10 @@
         <v/>
       </c>
       <c r="J16" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2224,7 +2224,7 @@
         <v/>
       </c>
       <c r="K17" t="n">
-        <v>1.938512997960721e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2253,7 +2253,7 @@
         <v/>
       </c>
       <c r="G18" t="n">
-        <v>-1.436942421719236e-10</v>
+        <v/>
       </c>
       <c r="H18" t="n">
         <v/>
@@ -2262,7 +2262,7 @@
         <v/>
       </c>
       <c r="J18" t="n">
-        <v/>
+        <v>9.189544117102367e-10</v>
       </c>
       <c r="K18" t="n">
         <v/>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2297,10 +2297,10 @@
         <v/>
       </c>
       <c r="H19" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J19" t="n">
         <v/>
@@ -2312,14 +2312,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>i4</t>
@@ -2332,7 +2332,7 @@
         <v/>
       </c>
       <c r="F20" t="n">
-        <v>-1.113306704466364e-10</v>
+        <v>3.556739408913852e-10</v>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -2353,17 +2353,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2376,7 +2376,7 @@
         <v/>
       </c>
       <c r="G21" t="n">
-        <v>-1.436942421719236e-10</v>
+        <v>0.999999999327264</v>
       </c>
       <c r="H21" t="n">
         <v/>
@@ -2399,14 +2399,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="D22" t="n">
         <v/>
       </c>
@@ -2414,7 +2414,7 @@
         <v/>
       </c>
       <c r="F22" t="n">
-        <v/>
+        <v>3.556739408913852e-10</v>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -2429,7 +2429,7 @@
         <v/>
       </c>
       <c r="K22" t="n">
-        <v>-3.04059388491093e-10</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -2445,17 +2445,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E23" t="n">
         <v/>
       </c>
       <c r="F23" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -2499,19 +2499,19 @@
         <v/>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v/>
+        <v>-1.616415351684571e-09</v>
       </c>
       <c r="J24" t="n">
         <v/>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -2587,7 +2587,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v/>
+        <v>1.616415351684571e-09</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v/>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>-3.556739408913852e-10</v>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -2634,7 +2634,7 @@
         <v/>
       </c>
       <c r="K27" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v/>
@@ -2663,7 +2663,7 @@
         <v/>
       </c>
       <c r="G28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v/>
@@ -2675,7 +2675,7 @@
         <v/>
       </c>
       <c r="K28" t="n">
-        <v>-3.04059388491093e-10</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2701,7 +2701,7 @@
         <v/>
       </c>
       <c r="F29" t="n">
-        <v>-1.608120344079468e-10</v>
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -2710,7 +2710,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v/>
+        <v>2.785854868178627e-10</v>
       </c>
       <c r="J29" t="n">
         <v/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2742,7 +2742,7 @@
         <v/>
       </c>
       <c r="F30" t="n">
-        <v>1.608120344079468e-10</v>
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -2751,7 +2751,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v/>
+        <v>-1.616415351684571e-09</v>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2783,7 +2783,7 @@
         <v/>
       </c>
       <c r="F31" t="n">
-        <v>1.608120344079468e-10</v>
+        <v>1.000000000355674</v>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -2814,11 +2814,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E32" t="n">
         <v/>
@@ -2833,7 +2833,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v/>
+        <v>-1.337829864866709e-09</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -2850,12 +2850,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2868,7 +2868,7 @@
         <v/>
       </c>
       <c r="G33" t="n">
-        <v/>
+        <v>-6.727359570591284e-10</v>
       </c>
       <c r="H33" t="n">
         <v/>
@@ -2880,7 +2880,7 @@
         <v/>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -2906,10 +2906,10 @@
         <v/>
       </c>
       <c r="F34" t="n">
-        <v>1.608120344079468e-10</v>
+        <v/>
       </c>
       <c r="G34" t="n">
-        <v/>
+        <v>6.727359570591284e-10</v>
       </c>
       <c r="H34" t="n">
         <v/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2950,13 +2950,13 @@
         <v/>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H35" t="n">
         <v/>
       </c>
       <c r="I35" t="n">
-        <v/>
+        <v>1.616415351684571e-09</v>
       </c>
       <c r="J35" t="n">
         <v/>
@@ -2973,12 +2973,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2988,16 +2988,16 @@
         <v/>
       </c>
       <c r="F36" t="n">
-        <v/>
+        <v>-3.556739408913852e-10</v>
       </c>
       <c r="G36" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v/>
       </c>
       <c r="I36" t="n">
-        <v/>
+        <v>-1.337829864866709e-09</v>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3009,27 +3009,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="D37" t="n">
         <v/>
       </c>
       <c r="E37" t="n">
-        <v/>
+        <v>1.401902843154307e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -3055,28 +3055,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v/>
       </c>
       <c r="E38" t="n">
-        <v/>
+        <v>-1.401902843154307e-10</v>
       </c>
       <c r="F38" t="n">
         <v/>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H38" t="n">
-        <v/>
+        <v>-1.483899168346961e-10</v>
       </c>
       <c r="I38" t="n">
         <v/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>4.839567694819562e-10</v>
       </c>
       <c r="E39" t="n">
         <v/>
@@ -3137,19 +3137,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v/>
+        <v>-4.839567694819562e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>7.322214525950287e-10</v>
+        <v/>
       </c>
       <c r="F40" t="n">
         <v/>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E41" t="n">
-        <v>0.9999999992677785</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v/>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I41" t="n">
         <v/>
@@ -3208,7 +3208,7 @@
         <v/>
       </c>
       <c r="K41" t="n">
-        <v>1.568189114747107e-10</v>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3240,16 +3240,16 @@
         <v/>
       </c>
       <c r="H42" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J42" t="n">
         <v/>
       </c>
       <c r="K42" t="n">
-        <v>-1.568189114747107e-10</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3284,13 +3284,13 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v/>
+        <v>0.9999999889623611</v>
       </c>
       <c r="J43" t="n">
         <v/>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -3322,13 +3322,13 @@
         <v/>
       </c>
       <c r="H44" t="n">
-        <v>2.307898410689769e-10</v>
+        <v/>
       </c>
       <c r="I44" t="n">
-        <v/>
+        <v>1.103763889946759e-08</v>
       </c>
       <c r="J44" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v/>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -3360,7 +3360,7 @@
         <v/>
       </c>
       <c r="G45" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v/>
@@ -3372,7 +3372,7 @@
         <v/>
       </c>
       <c r="K45" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3383,25 +3383,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>-4.839567694819562e-10</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9999999992677785</v>
+        <v/>
       </c>
       <c r="F46" t="n">
         <v/>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H46" t="n">
         <v/>
@@ -3424,19 +3424,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v/>
       </c>
       <c r="E47" t="n">
-        <v/>
+        <v>1.401902843154307e-10</v>
       </c>
       <c r="F47" t="n">
         <v/>
@@ -3445,7 +3445,7 @@
         <v/>
       </c>
       <c r="H47" t="n">
-        <v>2.307898410689769e-10</v>
+        <v/>
       </c>
       <c r="I47" t="n">
         <v/>
@@ -3465,19 +3465,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v/>
       </c>
       <c r="E48" t="n">
-        <v/>
+        <v>-1.401902843154307e-10</v>
       </c>
       <c r="F48" t="n">
         <v/>
@@ -3495,7 +3495,7 @@
         <v/>
       </c>
       <c r="K48" t="n">
-        <v>-1.568189114747107e-10</v>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -3506,19 +3506,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E49" t="n">
-        <v/>
+        <v>1.401902843154307e-10</v>
       </c>
       <c r="F49" t="n">
         <v/>
@@ -3527,7 +3527,7 @@
         <v/>
       </c>
       <c r="H49" t="n">
-        <v>-4.911116385302045e-10</v>
+        <v/>
       </c>
       <c r="I49" t="n">
         <v/>
@@ -3559,7 +3559,7 @@
         <v/>
       </c>
       <c r="E50" t="n">
-        <v/>
+        <v>-1.401902843154307e-10</v>
       </c>
       <c r="F50" t="n">
         <v/>
@@ -3568,10 +3568,10 @@
         <v/>
       </c>
       <c r="H50" t="n">
-        <v>-2.603217974612276e-10</v>
+        <v/>
       </c>
       <c r="I50" t="n">
-        <v/>
+        <v>1.103763889946759e-08</v>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -3588,12 +3588,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3609,7 +3609,7 @@
         <v/>
       </c>
       <c r="H51" t="n">
-        <v/>
+        <v>-1.483899168346961e-10</v>
       </c>
       <c r="I51" t="n">
         <v/>
@@ -3634,11 +3634,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E52" t="n">
         <v/>
@@ -3647,7 +3647,7 @@
         <v/>
       </c>
       <c r="G52" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -3691,7 +3691,7 @@
         <v/>
       </c>
       <c r="H53" t="n">
-        <v>2.307898410689769e-10</v>
+        <v>1.483899168346961e-10</v>
       </c>
       <c r="I53" t="n">
         <v/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3726,7 +3726,7 @@
         <v/>
       </c>
       <c r="F54" t="n">
-        <v>1.000000000043742</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="K54" t="n">
-        <v/>
+        <v>-1.381138126462636e-10</v>
       </c>
     </row>
     <row r="55">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v/>
@@ -3782,7 +3782,7 @@
         <v/>
       </c>
       <c r="K55" t="n">
-        <v>3.384442347846112e-10</v>
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -3793,22 +3793,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E56" t="n">
         <v/>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -3823,7 +3823,7 @@
         <v/>
       </c>
       <c r="K56" t="n">
-        <v/>
+        <v>1.000000000138114</v>
       </c>
     </row>
     <row r="57">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3899,13 +3899,13 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J58" t="n">
         <v/>
       </c>
       <c r="K58" t="n">
-        <v/>
+        <v>-1.381138126462636e-10</v>
       </c>
     </row>
     <row r="59">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3937,13 +3937,13 @@
         <v/>
       </c>
       <c r="H59" t="n">
-        <v/>
+        <v>-1.245735922067971e-10</v>
       </c>
       <c r="I59" t="n">
         <v/>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>9.402960559049205e-10</v>
       </c>
       <c r="K59" t="n">
         <v/>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v/>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F60" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4019,7 +4019,7 @@
         <v/>
       </c>
       <c r="H61" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v/>
@@ -4028,7 +4028,7 @@
         <v/>
       </c>
       <c r="K61" t="n">
-        <v>3.384442347846112e-10</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -4039,16 +4039,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v/>
@@ -4069,7 +4069,7 @@
         <v/>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="63">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4104,13 +4104,13 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v/>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -4121,19 +4121,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v/>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F64" t="n">
         <v/>
@@ -4148,36 +4148,36 @@
         <v/>
       </c>
       <c r="J64" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v/>
+        <v>1.381138126462636e-10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v/>
       </c>
       <c r="E65" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -4192,27 +4192,27 @@
         <v/>
       </c>
       <c r="K65" t="n">
-        <v/>
+        <v>-1.381138126462636e-10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
       <c r="D66" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v/>
@@ -4233,30 +4233,30 @@
         <v/>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.463667170576332e-10</v>
+        <v/>
       </c>
       <c r="F67" t="n">
         <v/>
@@ -4280,24 +4280,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v/>
       </c>
       <c r="E68" t="n">
-        <v>4.463667170576332e-10</v>
+        <v/>
       </c>
       <c r="F68" t="n">
         <v/>
@@ -4315,30 +4315,30 @@
         <v/>
       </c>
       <c r="K68" t="n">
-        <v/>
+        <v>-1.381138126462636e-10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v/>
       </c>
       <c r="E69" t="n">
-        <v>-4.463667170576332e-10</v>
+        <v/>
       </c>
       <c r="F69" t="n">
         <v/>
@@ -4347,7 +4347,7 @@
         <v/>
       </c>
       <c r="H69" t="n">
-        <v/>
+        <v>-1.245735922067971e-10</v>
       </c>
       <c r="I69" t="n">
         <v/>
@@ -4362,12 +4362,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4403,12 +4403,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -4438,23 +4438,23 @@
         <v/>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -4470,13 +4470,13 @@
         <v/>
       </c>
       <c r="H72" t="n">
-        <v/>
+        <v>-1.245735922067971e-10</v>
       </c>
       <c r="I72" t="n">
         <v/>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>9.402960559049205e-10</v>
       </c>
       <c r="K72" t="n">
         <v/>
@@ -4485,17 +4485,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4508,10 +4508,10 @@
         <v/>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H73" t="n">
-        <v/>
+        <v>1.245735922067971e-10</v>
       </c>
       <c r="I73" t="n">
         <v/>
@@ -4526,7 +4526,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4549,7 +4549,7 @@
         <v/>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H74" t="n">
         <v/>
@@ -4558,7 +4558,7 @@
         <v/>
       </c>
       <c r="J74" t="n">
-        <v/>
+        <v>-9.402960559049205e-10</v>
       </c>
       <c r="K74" t="n">
         <v/>
@@ -4567,7 +4567,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4584,7 +4584,7 @@
         <v/>
       </c>
       <c r="E75" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v/>
@@ -4599,7 +4599,7 @@
         <v/>
       </c>
       <c r="J75" t="n">
-        <v>5.072582575620668e-10</v>
+        <v/>
       </c>
       <c r="K75" t="n">
         <v/>
@@ -4608,7 +4608,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4640,26 +4640,26 @@
         <v/>
       </c>
       <c r="J76" t="n">
-        <v>-5.072582575620668e-10</v>
+        <v/>
       </c>
       <c r="K76" t="n">
-        <v/>
+        <v>4.202110801181401e-10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -4681,33 +4681,33 @@
         <v/>
       </c>
       <c r="J77" t="n">
-        <v>-5.072582575620668e-10</v>
+        <v/>
       </c>
       <c r="K77" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v/>
       </c>
       <c r="E78" t="n">
-        <v/>
+        <v>-5.116079998983064e-10</v>
       </c>
       <c r="F78" t="n">
         <v/>
@@ -4722,7 +4722,7 @@
         <v/>
       </c>
       <c r="J78" t="n">
-        <v>5.072582575620668e-10</v>
+        <v>-5.854772603182974e-10</v>
       </c>
       <c r="K78" t="n">
         <v/>
@@ -4731,17 +4731,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4763,7 +4763,7 @@
         <v/>
       </c>
       <c r="J79" t="n">
-        <v>-5.072582575620668e-10</v>
+        <v>5.854772603182974e-10</v>
       </c>
       <c r="K79" t="n">
         <v/>
@@ -4772,24 +4772,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v/>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F80" t="n">
         <v/>
@@ -4807,18 +4807,18 @@
         <v/>
       </c>
       <c r="K80" t="n">
-        <v/>
+        <v>4.202110801181401e-10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4833,7 +4833,7 @@
         <v/>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>4.041849264636628e-10</v>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
       <c r="J81" t="n">
-        <v/>
+        <v>-5.854772603182974e-10</v>
       </c>
       <c r="K81" t="n">
         <v/>
@@ -4854,17 +4854,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -4877,7 +4877,7 @@
         <v/>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H82" t="n">
         <v/>
@@ -4889,18 +4889,18 @@
         <v/>
       </c>
       <c r="K82" t="n">
-        <v/>
+        <v>-4.202110801181401e-10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4915,7 +4915,7 @@
         <v/>
       </c>
       <c r="F83" t="n">
-        <v/>
+        <v>-4.041849264636628e-10</v>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -4936,12 +4936,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4950,7 +4950,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v/>
@@ -4971,13 +4971,13 @@
         <v/>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.923612102302309e-09</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v/>
@@ -5018,21 +5018,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.999999998076388</v>
+        <v/>
       </c>
       <c r="E86" t="n">
         <v/>
@@ -5053,30 +5053,30 @@
         <v/>
       </c>
       <c r="K86" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v/>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>-5.116079998983064e-10</v>
       </c>
       <c r="F87" t="n">
         <v/>
@@ -5100,12 +5100,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5117,7 +5117,7 @@
         <v/>
       </c>
       <c r="E88" t="n">
-        <v/>
+        <v>5.116079998983064e-10</v>
       </c>
       <c r="F88" t="n">
         <v/>
@@ -5132,7 +5132,7 @@
         <v/>
       </c>
       <c r="J88" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v/>
@@ -5141,21 +5141,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.923612102302309e-09</v>
+        <v/>
       </c>
       <c r="E89" t="n">
         <v/>
@@ -5167,10 +5167,10 @@
         <v/>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I89" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v/>
@@ -5182,27 +5182,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.999999998076388</v>
+        <v/>
       </c>
       <c r="E90" t="n">
         <v/>
       </c>
       <c r="F90" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J90" t="n">
         <v/>
@@ -5223,17 +5223,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -5243,7 +5243,7 @@
         <v/>
       </c>
       <c r="F91" t="n">
-        <v/>
+        <v>0.9999999995958151</v>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -5258,23 +5258,23 @@
         <v/>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5290,7 +5290,7 @@
         <v/>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I92" t="n">
         <v/>
@@ -5299,23 +5299,23 @@
         <v/>
       </c>
       <c r="K92" t="n">
-        <v/>
+        <v>-4.202110801181401e-10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -5325,7 +5325,7 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>2.360867259116445e-10</v>
+        <v>-4.041849264636628e-10</v>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -5346,17 +5346,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -5366,7 +5366,7 @@
         <v/>
       </c>
       <c r="F94" t="n">
-        <v>5.055768904646228e-10</v>
+        <v/>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -5381,23 +5381,23 @@
         <v/>
       </c>
       <c r="K94" t="n">
-        <v/>
+        <v>4.202110801181401e-10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -5413,13 +5413,13 @@
         <v/>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I95" t="n">
         <v/>
       </c>
       <c r="J95" t="n">
-        <v/>
+        <v>5.854772603182974e-10</v>
       </c>
       <c r="K95" t="n">
         <v/>
@@ -5428,21 +5428,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.000000000172378</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v/>
@@ -5469,27 +5469,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v/>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F97" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -5510,17 +5510,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -5530,7 +5530,7 @@
         <v/>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>-2.099114373407988e-10</v>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -5551,27 +5551,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-1.72377759566348e-10</v>
+        <v/>
       </c>
       <c r="E99" t="n">
-        <v/>
+        <v>-5.491117783312115e-09</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.055768904646228e-10</v>
+        <v/>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -5592,27 +5592,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1.72377759566348e-10</v>
+        <v/>
       </c>
       <c r="E100" t="n">
         <v/>
       </c>
       <c r="F100" t="n">
-        <v>-5.055768904646228e-10</v>
+        <v/>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -5627,23 +5627,23 @@
         <v/>
       </c>
       <c r="K100" t="n">
-        <v/>
+        <v>-1.39968236878113e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
       <c r="F101" t="n">
-        <v>2.360867259116445e-10</v>
+        <v/>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -5668,33 +5668,33 @@
         <v/>
       </c>
       <c r="K101" t="n">
-        <v/>
+        <v>1.39968236878113e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v/>
       </c>
       <c r="F102" t="n">
-        <v>5.055768904646228e-10</v>
+        <v>-2.099114373407988e-10</v>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -5715,24 +5715,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v/>
       </c>
       <c r="E103" t="n">
-        <v/>
+        <v>-5.491117783312115e-09</v>
       </c>
       <c r="F103" t="n">
         <v/>
@@ -5741,7 +5741,7 @@
         <v/>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I103" t="n">
         <v/>
@@ -5756,27 +5756,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F104" t="n">
-        <v>0.9999999994944231</v>
+        <v>-2.099114373407988e-10</v>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -5797,24 +5797,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v/>
       </c>
       <c r="E105" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v/>
@@ -5826,7 +5826,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J105" t="n">
         <v/>
@@ -5838,17 +5838,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -5858,7 +5858,7 @@
         <v/>
       </c>
       <c r="F106" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -5870,7 +5870,7 @@
         <v/>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K106" t="n">
         <v/>
@@ -5879,52 +5879,94 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v/>
+      </c>
+      <c r="F107" t="n">
+        <v/>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I107" t="n">
+        <v/>
+      </c>
+      <c r="J107" t="n">
+        <v/>
+      </c>
+      <c r="K107" t="n">
+        <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E108" t="n">
+        <v/>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+      <c r="G108" t="n">
+        <v/>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v/>
+      </c>
+      <c r="J108" t="n">
+        <v/>
+      </c>
+      <c r="K108" t="n">
+        <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5932,271 +5974,532 @@
           <t>i7</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v/>
+      </c>
+      <c r="E109" t="n">
+        <v/>
+      </c>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+      <c r="G109" t="n">
+        <v/>
+      </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I109" t="n">
+        <v/>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v/>
+      </c>
+      <c r="E110" t="n">
+        <v/>
+      </c>
+      <c r="F110" t="n">
+        <v/>
+      </c>
+      <c r="G110" t="n">
+        <v/>
       </c>
       <c r="H110" t="n">
+        <v/>
+      </c>
+      <c r="I110" t="n">
+        <v/>
+      </c>
+      <c r="J110" t="n">
+        <v/>
+      </c>
+      <c r="K110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v/>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>-5.491117783312115e-09</v>
+      </c>
+      <c r="F111" t="n">
+        <v/>
+      </c>
+      <c r="G111" t="n">
+        <v/>
+      </c>
+      <c r="H111" t="n">
+        <v/>
+      </c>
+      <c r="I111" t="n">
+        <v/>
+      </c>
+      <c r="J111" t="n">
+        <v/>
+      </c>
+      <c r="K111" t="n">
+        <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+      <c r="G112" t="n">
+        <v/>
+      </c>
+      <c r="H112" t="n">
+        <v/>
+      </c>
+      <c r="I112" t="n">
+        <v/>
+      </c>
+      <c r="J112" t="n">
+        <v/>
+      </c>
+      <c r="K112" t="n">
+        <v>-1.39968236878113e-10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v/>
+      </c>
+      <c r="E113" t="n">
+        <v>5.491117783312115e-09</v>
+      </c>
+      <c r="F113" t="n">
+        <v/>
+      </c>
+      <c r="G113" t="n">
+        <v/>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I113" t="n">
+        <v/>
+      </c>
+      <c r="J113" t="n">
+        <v/>
+      </c>
+      <c r="K113" t="n">
+        <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v/>
+      </c>
+      <c r="E114" t="n">
+        <v>-5.491117783312115e-09</v>
+      </c>
+      <c r="F114" t="n">
+        <v/>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H114" t="n">
+        <v/>
+      </c>
+      <c r="I114" t="n">
+        <v/>
+      </c>
+      <c r="J114" t="n">
+        <v/>
+      </c>
+      <c r="K114" t="n">
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v/>
+      </c>
+      <c r="E115" t="n">
+        <v/>
+      </c>
+      <c r="F115" t="n">
+        <v/>
+      </c>
+      <c r="G115" t="n">
+        <v/>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I115" t="n">
+        <v/>
+      </c>
+      <c r="J115" t="n">
+        <v/>
+      </c>
+      <c r="K115" t="n">
+        <v>-2.069761251636489e-10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E116" t="n">
+        <v/>
+      </c>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+      <c r="G116" t="n">
+        <v>1.112106247118414e-10</v>
+      </c>
+      <c r="H116" t="n">
+        <v/>
+      </c>
+      <c r="I116" t="n">
+        <v/>
+      </c>
+      <c r="J116" t="n">
+        <v/>
+      </c>
+      <c r="K116" t="n">
+        <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v/>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G117" t="n">
+        <v/>
+      </c>
+      <c r="H117" t="n">
+        <v/>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v/>
+      </c>
+      <c r="K117" t="n">
+        <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v/>
+      </c>
+      <c r="E118" t="n">
+        <v/>
+      </c>
+      <c r="F118" t="n">
+        <v/>
+      </c>
+      <c r="G118" t="n">
+        <v>1.112106247118414e-10</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I118" t="n">
+        <v/>
+      </c>
+      <c r="J118" t="n">
+        <v/>
+      </c>
+      <c r="K118" t="n">
+        <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v/>
+      </c>
+      <c r="E119" t="n">
+        <v/>
+      </c>
+      <c r="F119" t="n">
+        <v/>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H119" t="n">
+        <v/>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J119" t="n">
+        <v/>
+      </c>
+      <c r="K119" t="n">
+        <v>-2.069761251636489e-10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v/>
+      </c>
+      <c r="E120" t="n">
+        <v/>
+      </c>
+      <c r="F120" t="n">
+        <v/>
+      </c>
+      <c r="G120" t="n">
+        <v/>
+      </c>
+      <c r="H120" t="n">
+        <v>7.045416421560636e-10</v>
+      </c>
+      <c r="I120" t="n">
+        <v/>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="K120" t="n">
+        <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D121" t="n">
+        <v/>
+      </c>
+      <c r="E121" t="n">
+        <v/>
+      </c>
+      <c r="F121" t="n">
+        <v/>
+      </c>
+      <c r="G121" t="n">
+        <v/>
+      </c>
+      <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J121" t="n">
+        <v/>
+      </c>
+      <c r="K121" t="n">
+        <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6204,103 +6507,199 @@
           <t>i1</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v/>
+      </c>
+      <c r="E122" t="n">
+        <v/>
+      </c>
+      <c r="F122" t="n">
+        <v/>
+      </c>
+      <c r="G122" t="n">
+        <v/>
+      </c>
+      <c r="H122" t="n">
+        <v/>
+      </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J122" t="n">
+        <v/>
+      </c>
+      <c r="K122" t="n">
+        <v>-2.069761251636489e-10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v/>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G123" t="n">
+        <v/>
+      </c>
+      <c r="H123" t="n">
+        <v/>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J123" t="n">
+        <v/>
+      </c>
+      <c r="K123" t="n">
+        <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v/>
+      </c>
+      <c r="E124" t="n">
+        <v/>
+      </c>
+      <c r="F124" t="n">
+        <v/>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H124" t="n">
+        <v>7.045416421560636e-10</v>
+      </c>
+      <c r="I124" t="n">
+        <v/>
+      </c>
+      <c r="J124" t="n">
+        <v/>
+      </c>
+      <c r="K124" t="n">
+        <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v/>
+      </c>
+      <c r="E125" t="n">
+        <v/>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+      <c r="H125" t="n">
+        <v>-7.045416421560636e-10</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J125" t="n">
+        <v/>
+      </c>
+      <c r="K125" t="n">
+        <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v/>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
+      <c r="F126" t="n">
+        <v/>
+      </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H126" t="n">
+        <v/>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v/>
+      </c>
+      <c r="K126" t="n">
+        <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6310,17 +6709,38 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v/>
+      </c>
+      <c r="E127" t="n">
+        <v/>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H127" t="n">
+        <v/>
+      </c>
+      <c r="I127" t="n">
+        <v/>
+      </c>
+      <c r="J127" t="n">
+        <v/>
+      </c>
+      <c r="K127" t="n">
+        <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6330,53 +6750,113 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v/>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F128" t="n">
+        <v/>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v/>
+      </c>
+      <c r="J128" t="n">
+        <v/>
+      </c>
+      <c r="K128" t="n">
+        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F129" t="n">
+        <v/>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H129" t="n">
+        <v/>
+      </c>
+      <c r="I129" t="n">
+        <v/>
+      </c>
+      <c r="J129" t="n">
+        <v/>
+      </c>
+      <c r="K129" t="n">
+        <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D130" t="n">
+        <v/>
+      </c>
+      <c r="E130" t="n">
+        <v/>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+      <c r="H130" t="n">
+        <v/>
+      </c>
+      <c r="I130" t="n">
+        <v/>
+      </c>
+      <c r="J130" t="n">
+        <v/>
+      </c>
+      <c r="K130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6388,16 +6868,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v/>
+      </c>
+      <c r="E131" t="n">
+        <v>1.695682934061762e-09</v>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+      <c r="G131" t="n">
+        <v/>
+      </c>
+      <c r="H131" t="n">
+        <v/>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J131" t="n">
+        <v/>
+      </c>
+      <c r="K131" t="n">
+        <v/>
       </c>
     </row>
     <row r="132">
@@ -6408,19 +6909,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v/>
+      </c>
+      <c r="E132" t="n">
+        <v/>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G132" t="n">
+        <v/>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="I132" t="n">
+        <v/>
+      </c>
+      <c r="J132" t="n">
+        <v>2.610014545282405e-10</v>
+      </c>
+      <c r="K132" t="n">
+        <v/>
       </c>
     </row>
     <row r="133">
@@ -6431,87 +6950,171 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v/>
+      </c>
+      <c r="E133" t="n">
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+      <c r="H133" t="n">
+        <v/>
+      </c>
+      <c r="I133" t="n">
+        <v>2.103576046036602e-09</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="K133" t="n">
+        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v/>
+      </c>
+      <c r="E134" t="n">
+        <v/>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G134" t="n">
+        <v/>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v/>
+      </c>
+      <c r="J134" t="n">
+        <v/>
+      </c>
+      <c r="K134" t="n">
+        <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v/>
+      </c>
+      <c r="E135" t="n">
+        <v/>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G135" t="n">
+        <v/>
+      </c>
+      <c r="H135" t="n">
+        <v/>
+      </c>
+      <c r="I135" t="n">
+        <v/>
+      </c>
+      <c r="J135" t="n">
+        <v>2.610014545282405e-10</v>
+      </c>
+      <c r="K135" t="n">
+        <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v/>
+      </c>
+      <c r="E136" t="n">
+        <v/>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G136" t="n">
+        <v/>
+      </c>
+      <c r="H136" t="n">
+        <v/>
+      </c>
+      <c r="I136" t="n">
+        <v>2.103576046036602e-09</v>
+      </c>
+      <c r="J136" t="n">
+        <v/>
+      </c>
+      <c r="K136" t="n">
+        <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6519,59 +7122,122 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D137" t="n">
+        <v/>
+      </c>
+      <c r="E137" t="n">
+        <v>-1.695682934061762e-09</v>
+      </c>
       <c r="F137" t="n">
         <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v/>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v/>
+      </c>
+      <c r="J137" t="n">
+        <v/>
+      </c>
+      <c r="K137" t="n">
+        <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v/>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G138" t="n">
+        <v/>
+      </c>
+      <c r="H138" t="n">
+        <v/>
+      </c>
+      <c r="I138" t="n">
+        <v/>
+      </c>
+      <c r="J138" t="n">
+        <v>2.610014545282405e-10</v>
+      </c>
+      <c r="K138" t="n">
+        <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v/>
+      </c>
+      <c r="E139" t="n">
+        <v/>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G139" t="n">
+        <v/>
+      </c>
+      <c r="H139" t="n">
+        <v/>
+      </c>
+      <c r="I139" t="n">
+        <v/>
+      </c>
+      <c r="J139" t="n">
+        <v>-2.610014545282405e-10</v>
+      </c>
+      <c r="K139" t="n">
+        <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6579,34 +7245,76 @@
           <t>i6</t>
         </is>
       </c>
+      <c r="D140" t="n">
+        <v/>
+      </c>
+      <c r="E140" t="n">
+        <v/>
+      </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G140" t="n">
+        <v/>
+      </c>
+      <c r="H140" t="n">
+        <v/>
+      </c>
+      <c r="I140" t="n">
+        <v>-2.103576046036602e-09</v>
+      </c>
+      <c r="J140" t="n">
+        <v/>
+      </c>
+      <c r="K140" t="n">
+        <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v/>
+      </c>
+      <c r="E141" t="n">
+        <v>1.695682934061762e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G141" t="n">
+        <v/>
+      </c>
+      <c r="H141" t="n">
+        <v/>
+      </c>
+      <c r="I141" t="n">
+        <v/>
+      </c>
+      <c r="J141" t="n">
+        <v/>
+      </c>
+      <c r="K141" t="n">
+        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6616,17 +7324,38 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v/>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G142" t="n">
+        <v/>
+      </c>
+      <c r="H142" t="n">
+        <v/>
+      </c>
+      <c r="I142" t="n">
+        <v>2.103576046036602e-09</v>
+      </c>
+      <c r="J142" t="n">
+        <v/>
+      </c>
+      <c r="K142" t="n">
+        <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6636,17 +7365,38 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v/>
+      </c>
+      <c r="E143" t="n">
+        <v>-1.695682934061762e-09</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v/>
+      </c>
+      <c r="I143" t="n">
+        <v/>
+      </c>
+      <c r="J143" t="n">
+        <v/>
+      </c>
+      <c r="K143" t="n">
+        <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6656,17 +7406,38 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v/>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G144" t="n">
+        <v/>
+      </c>
+      <c r="H144" t="n">
+        <v/>
+      </c>
+      <c r="I144" t="n">
+        <v>-4.207152092073205e-09</v>
+      </c>
+      <c r="J144" t="n">
+        <v/>
+      </c>
+      <c r="K144" t="n">
+        <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6676,17 +7447,38 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v/>
+      </c>
+      <c r="E145" t="n">
+        <v/>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G145" t="n">
+        <v/>
+      </c>
+      <c r="H145" t="n">
+        <v/>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v/>
+      </c>
+      <c r="K145" t="n">
+        <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6696,14 +7488,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v/>
+      </c>
+      <c r="E146" t="n">
+        <v/>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="G146" t="n">
+        <v/>
+      </c>
+      <c r="H146" t="n">
+        <v/>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -11681,7 +12491,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.843022498495116</v>
+        <v>2.93751381403256</v>
       </c>
     </row>
   </sheetData>
@@ -11705,7 +12515,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>238.0160000000033</v>
+        <v>614.3120000000054</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29.78248449941933</v>
       </c>
       <c r="G2" t="n">
-        <v>49.99093652431063</v>
+        <v>37.21010924761747</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -559,28 +559,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82.55933958697858</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>412.7966977178446</v>
+        <v>22.19132697033777</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1186788982624</v>
+        <v>16.41774924426703</v>
       </c>
       <c r="D2" t="n">
-        <v>536.635706585334</v>
+        <v>8.130704058117706</v>
       </c>
       <c r="E2" t="n">
-        <v>371.5170276987209</v>
+        <v>20.25281346561226</v>
       </c>
       <c r="F2" t="n">
-        <v>82.55933952348583</v>
+        <v>10.57020372983093</v>
       </c>
       <c r="G2" t="n">
-        <v>2.854250069106137e-07</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>371.5170278180381</v>
+        <v>13.40405954842953</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.450340058271589e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.17704188467945</v>
+        <v>36.98554495056295</v>
       </c>
       <c r="H3" t="n">
-        <v>20.65093526060551</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.447017094934841e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.21271647117545</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.17004962369128</v>
       </c>
     </row>
     <row r="5">
@@ -750,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.447017094934841e-08</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.29408373952029</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>24.84525715597397</v>
+        <v>13.55117343019618</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11.29408373952029</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.29038269761011</v>
+        <v>10.29038269963711</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>23.46430640971666</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -809,25 +809,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.17704188467945</v>
+        <v>36.98554495056295</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21271647117545</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.29038269761011</v>
+        <v>10.29038269963711</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8.808503108192442</v>
       </c>
       <c r="I7" t="n">
-        <v>16.76325641565834</v>
+        <v>11.17004962369128</v>
       </c>
     </row>
     <row r="8">
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1.450340058271589e-08</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20.65093526060551</v>
       </c>
       <c r="D8" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="E8" t="n">
-        <v>24.84525715597397</v>
+        <v>13.55117343019618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.46430640971666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.808503108192442</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.62916981622616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11.17004962369128</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16.76325641565834</v>
+        <v>11.17004962369128</v>
       </c>
       <c r="H9" t="n">
-        <v>21.62916981622616</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.306650757181842e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4095533037938159</v>
+        <v>0.4095533031788553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3001613440129012</v>
+        <v>0.1280315926775771</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.381137426648138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3373968449461741</v>
+        <v>0.1623566712803527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2353633041620161</v>
+        <v>0.235363304162016</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2610268529069238</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1969663056081541</v>
+        <v>0.1969663058079014</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.149570712509763</v>
+        <v>0.1495707125392254</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1641595071539275</v>
+        <v>0.3410536936652317</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1118,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4095533037938158</v>
+        <v>0.4095533031788553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3373968339085351</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2610268529069238</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.149570712509763</v>
+        <v>0.1495707125392254</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2436539320015939</v>
+        <v>0.1623566712803527</v>
       </c>
     </row>
     <row r="8">
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3001613440129011</v>
+        <v>0.1280315926775771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235363304162016</v>
+        <v>0.2353633041620161</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1969663056081541</v>
+        <v>0.1969663058079014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1641595071539275</v>
+        <v>0.3410536936652317</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3143799832788472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.1623566712803527</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2436539320015939</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3143799832788473</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999993693349</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5904466962061841</v>
+        <v>0.5904466968211447</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6998386559870988</v>
+        <v>0.8719684073224229</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000138114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6626031550538258</v>
+        <v>0.8376433287196473</v>
       </c>
       <c r="H4" t="n">
         <v>0.764636695837984</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7389731470930763</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8030336943918459</v>
+        <v>0.8030336941920986</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8504292874902371</v>
+        <v>0.8504292874607746</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8358404928460725</v>
+        <v>0.6589463063347683</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5904466962061842</v>
+        <v>0.5904466968211447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6626031660914649</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7389731470930763</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8504292874902371</v>
+        <v>0.8504292874607746</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7563460679984061</v>
+        <v>0.8376433287196473</v>
       </c>
     </row>
     <row r="8">
@@ -1458,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6998386559870988</v>
+        <v>0.8719684073224229</v>
       </c>
       <c r="D8" t="n">
         <v>0.764636695837984</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8030336943918459</v>
+        <v>0.8030336941920986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8358404928460725</v>
+        <v>0.6589463063347683</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6856200167211528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8376433287196473</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7563460679984061</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6856200167211528</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1584,20 +1584,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" t="n">
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H2" t="n">
         <v/>
@@ -1606,10 +1606,10 @@
         <v/>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K2" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1635,10 +1635,10 @@
         <v/>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v/>
+        <v>-2.942492516940841e-09</v>
       </c>
       <c r="H3" t="n">
         <v/>
@@ -1650,7 +1650,7 @@
         <v/>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1682,13 +1682,13 @@
         <v/>
       </c>
       <c r="H4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J4" t="n">
-        <v>9.189544117102367e-10</v>
+        <v/>
       </c>
       <c r="K4" t="n">
         <v/>
@@ -1707,14 +1707,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v/>
@@ -1726,10 +1726,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.189544117102367e-10</v>
+        <v/>
       </c>
       <c r="K5" t="n">
         <v/>
@@ -1758,19 +1758,19 @@
         <v/>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v/>
+        <v>2.942492516940841e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I6" t="n">
         <v/>
       </c>
       <c r="J6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1802,7 +1802,7 @@
         <v/>
       </c>
       <c r="G7" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v/>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1846,10 +1846,10 @@
         <v/>
       </c>
       <c r="H8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J8" t="n">
         <v/>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1884,7 +1884,7 @@
         <v/>
       </c>
       <c r="G9" t="n">
-        <v/>
+        <v>-2.942492516940841e-09</v>
       </c>
       <c r="H9" t="n">
         <v/>
@@ -1893,7 +1893,7 @@
         <v/>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K9" t="n">
         <v/>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1931,10 +1931,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K10" t="n">
         <v/>
@@ -1953,14 +1953,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v/>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F11" t="n">
         <v/>
@@ -1969,13 +1969,13 @@
         <v/>
       </c>
       <c r="H11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K11" t="n">
         <v/>
@@ -1989,25 +1989,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v/>
       </c>
       <c r="E12" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v/>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v/>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2054,10 +2054,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K13" t="n">
         <v/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2098,10 +2098,10 @@
         <v/>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K14" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2127,13 +2127,13 @@
         <v/>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
       </c>
       <c r="H15" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -2142,7 +2142,7 @@
         <v/>
       </c>
       <c r="K15" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2174,16 +2174,16 @@
         <v/>
       </c>
       <c r="H16" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v/>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2256,13 +2256,13 @@
         <v/>
       </c>
       <c r="H18" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v/>
       </c>
       <c r="J18" t="n">
-        <v>9.189544117102367e-10</v>
+        <v/>
       </c>
       <c r="K18" t="n">
         <v/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2291,13 +2291,13 @@
         <v/>
       </c>
       <c r="F19" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v/>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I19" t="n">
         <v/>
@@ -2312,12 +2312,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2332,10 +2332,10 @@
         <v/>
       </c>
       <c r="F20" t="n">
-        <v>3.556739408913852e-10</v>
+        <v/>
       </c>
       <c r="G20" t="n">
-        <v/>
+        <v>2.942492516940841e-09</v>
       </c>
       <c r="H20" t="n">
         <v/>
@@ -2353,17 +2353,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2376,7 +2376,7 @@
         <v/>
       </c>
       <c r="G21" t="n">
-        <v>0.999999999327264</v>
+        <v/>
       </c>
       <c r="H21" t="n">
         <v/>
@@ -2385,7 +2385,7 @@
         <v/>
       </c>
       <c r="J21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v/>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2414,13 +2414,13 @@
         <v/>
       </c>
       <c r="F22" t="n">
-        <v>3.556739408913852e-10</v>
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
       </c>
       <c r="H22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v/>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2455,13 +2455,13 @@
         <v/>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
       </c>
       <c r="H23" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v/>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2496,16 +2496,16 @@
         <v/>
       </c>
       <c r="F24" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v/>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I24" t="n">
-        <v>-1.616415351684571e-09</v>
+        <v/>
       </c>
       <c r="J24" t="n">
         <v/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2540,13 +2540,13 @@
         <v/>
       </c>
       <c r="G25" t="n">
-        <v/>
+        <v>6.306651112978423e-10</v>
       </c>
       <c r="H25" t="n">
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J25" t="n">
         <v/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2578,19 +2578,19 @@
         <v/>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v/>
+        <v>0.9999999993693349</v>
       </c>
       <c r="H26" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.616415351684571e-09</v>
+        <v/>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K26" t="n">
         <v/>
@@ -2609,17 +2609,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>-2.108068627990057e-10</v>
       </c>
       <c r="E27" t="n">
         <v/>
       </c>
       <c r="F27" t="n">
-        <v>-3.556739408913852e-10</v>
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -2634,7 +2634,7 @@
         <v/>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -2645,16 +2645,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2.108068627990057e-10</v>
       </c>
       <c r="E28" t="n">
         <v/>
@@ -2663,16 +2663,16 @@
         <v/>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H28" t="n">
         <v/>
       </c>
       <c r="I28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v/>
@@ -2686,16 +2686,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v/>
@@ -2710,7 +2710,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>2.785854868178627e-10</v>
+        <v/>
       </c>
       <c r="J29" t="n">
         <v/>
@@ -2727,12 +2727,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2751,13 +2751,13 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>-1.616415351684571e-09</v>
+        <v/>
       </c>
       <c r="J30" t="n">
         <v/>
       </c>
       <c r="K30" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2783,13 +2783,13 @@
         <v/>
       </c>
       <c r="F31" t="n">
-        <v>1.000000000355674</v>
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
       </c>
       <c r="H31" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v/>
@@ -2809,12 +2809,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2827,13 +2827,13 @@
         <v/>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9999999993693349</v>
       </c>
       <c r="H32" t="n">
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>-1.337829864866709e-09</v>
+        <v/>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -2850,12 +2850,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2868,10 +2868,10 @@
         <v/>
       </c>
       <c r="G33" t="n">
-        <v>-6.727359570591284e-10</v>
+        <v/>
       </c>
       <c r="H33" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v/>
@@ -2891,16 +2891,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v/>
+        <v>-2.108068627990057e-10</v>
       </c>
       <c r="E34" t="n">
         <v/>
@@ -2909,7 +2909,7 @@
         <v/>
       </c>
       <c r="G34" t="n">
-        <v>6.727359570591284e-10</v>
+        <v>-6.306651112978423e-10</v>
       </c>
       <c r="H34" t="n">
         <v/>
@@ -2932,12 +2932,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2950,13 +2950,13 @@
         <v/>
       </c>
       <c r="G35" t="n">
-        <v/>
+        <v>6.306651112978423e-10</v>
       </c>
       <c r="H35" t="n">
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1.616415351684571e-09</v>
+        <v/>
       </c>
       <c r="J35" t="n">
         <v/>
@@ -2973,31 +2973,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E36" t="n">
         <v/>
       </c>
       <c r="F36" t="n">
-        <v>-3.556739408913852e-10</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H36" t="n">
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>-1.337829864866709e-09</v>
+        <v/>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3009,24 +3009,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v/>
+        <v>2.108068627990057e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>1.401902843154307e-10</v>
+        <v/>
       </c>
       <c r="F37" t="n">
         <v/>
@@ -3050,24 +3050,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v/>
       </c>
       <c r="E38" t="n">
-        <v>-1.401902843154307e-10</v>
+        <v/>
       </c>
       <c r="F38" t="n">
         <v/>
@@ -3076,13 +3076,13 @@
         <v/>
       </c>
       <c r="H38" t="n">
-        <v>-1.483899168346961e-10</v>
+        <v/>
       </c>
       <c r="I38" t="n">
         <v/>
       </c>
       <c r="J38" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v/>
@@ -3091,12 +3091,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.839567694819562e-10</v>
+        <v>1.000000000210807</v>
       </c>
       <c r="E39" t="n">
         <v/>
@@ -3132,12 +3132,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-4.839567694819562e-10</v>
+        <v>-2.108068627990057e-10</v>
       </c>
       <c r="E40" t="n">
         <v/>
@@ -3173,27 +3173,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v/>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F41" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -3214,17 +3214,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3255,17 +3255,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3275,7 +3275,7 @@
         <v/>
       </c>
       <c r="F43" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -3284,7 +3284,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>0.9999999889623611</v>
+        <v/>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -3319,16 +3319,16 @@
         <v/>
       </c>
       <c r="G44" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>1.103763889946759e-08</v>
+        <v/>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K44" t="n">
         <v/>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E45" t="n">
         <v/>
@@ -3360,7 +3360,7 @@
         <v/>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H45" t="n">
         <v/>
@@ -3383,16 +3383,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-4.839567694819562e-10</v>
+        <v/>
       </c>
       <c r="E46" t="n">
         <v/>
@@ -3413,7 +3413,7 @@
         <v/>
       </c>
       <c r="K46" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3424,19 +3424,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1.401902843154307e-10</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v/>
@@ -3465,25 +3465,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v/>
       </c>
       <c r="E48" t="n">
-        <v>-1.401902843154307e-10</v>
+        <v/>
       </c>
       <c r="F48" t="n">
         <v/>
       </c>
       <c r="G48" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v/>
@@ -3506,19 +3506,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v/>
       </c>
       <c r="E49" t="n">
-        <v>1.401902843154307e-10</v>
+        <v/>
       </c>
       <c r="F49" t="n">
         <v/>
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
       <c r="J49" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v/>
@@ -3547,19 +3547,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v/>
       </c>
       <c r="E50" t="n">
-        <v>-1.401902843154307e-10</v>
+        <v/>
       </c>
       <c r="F50" t="n">
         <v/>
@@ -3568,10 +3568,10 @@
         <v/>
       </c>
       <c r="H50" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1.103763889946759e-08</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3609,7 +3609,7 @@
         <v/>
       </c>
       <c r="H51" t="n">
-        <v>-1.483899168346961e-10</v>
+        <v/>
       </c>
       <c r="I51" t="n">
         <v/>
@@ -3629,25 +3629,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v/>
       </c>
       <c r="E52" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v/>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H52" t="n">
         <v/>
@@ -3670,12 +3670,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -3688,10 +3688,10 @@
         <v/>
       </c>
       <c r="G53" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1.483899168346961e-10</v>
+        <v/>
       </c>
       <c r="I53" t="n">
         <v/>
@@ -3706,27 +3706,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="D54" t="n">
         <v/>
       </c>
       <c r="E54" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -3741,18 +3741,18 @@
         <v/>
       </c>
       <c r="K54" t="n">
-        <v>-1.381138126462636e-10</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E55" t="n">
         <v/>
@@ -3773,7 +3773,7 @@
         <v/>
       </c>
       <c r="H55" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v/>
@@ -3788,17 +3788,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3817,13 +3817,13 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v/>
       </c>
       <c r="K56" t="n">
-        <v>1.000000000138114</v>
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -3834,14 +3834,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
       <c r="D57" t="n">
         <v/>
       </c>
@@ -3855,7 +3855,7 @@
         <v/>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I57" t="n">
         <v/>
@@ -3864,7 +3864,7 @@
         <v/>
       </c>
       <c r="K57" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
       <c r="H58" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v/>
@@ -3905,7 +3905,7 @@
         <v/>
       </c>
       <c r="K58" t="n">
-        <v>-1.381138126462636e-10</v>
+        <v/>
       </c>
     </row>
     <row r="59">
@@ -3916,14 +3916,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
-      </c>
       <c r="D59" t="n">
         <v/>
       </c>
@@ -3931,19 +3931,19 @@
         <v/>
       </c>
       <c r="F59" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v/>
       </c>
       <c r="H59" t="n">
-        <v>-1.245735922067971e-10</v>
+        <v/>
       </c>
       <c r="I59" t="n">
         <v/>
       </c>
       <c r="J59" t="n">
-        <v>9.402960559049205e-10</v>
+        <v/>
       </c>
       <c r="K59" t="n">
         <v/>
@@ -3957,22 +3957,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v/>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -3987,7 +3987,7 @@
         <v/>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -3998,16 +3998,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v/>
+        <v>-8.407677844713007e-10</v>
       </c>
       <c r="E61" t="n">
         <v/>
@@ -4039,19 +4039,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E62" t="n">
-        <v/>
+        <v>2.615071453663314e-10</v>
       </c>
       <c r="F62" t="n">
         <v/>
@@ -4080,16 +4080,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v/>
+        <v>8.407677844713007e-10</v>
       </c>
       <c r="E63" t="n">
         <v/>
@@ -4104,7 +4104,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J63" t="n">
         <v/>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -4145,13 +4145,13 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K64" t="n">
-        <v>1.381138126462636e-10</v>
+        <v/>
       </c>
     </row>
     <row r="65">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4174,7 +4174,7 @@
         <v/>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F65" t="n">
         <v/>
@@ -4192,7 +4192,7 @@
         <v/>
       </c>
       <c r="K65" t="n">
-        <v>-1.381138126462636e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E66" t="n">
         <v/>
       </c>
       <c r="F66" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -4244,19 +4244,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E67" t="n">
-        <v/>
+        <v>2.615071453663314e-10</v>
       </c>
       <c r="F67" t="n">
         <v/>
@@ -4265,10 +4265,10 @@
         <v/>
       </c>
       <c r="H67" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v/>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -4315,7 +4315,7 @@
         <v/>
       </c>
       <c r="K68" t="n">
-        <v>-1.381138126462636e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4326,19 +4326,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v/>
       </c>
       <c r="E69" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v/>
@@ -4347,7 +4347,7 @@
         <v/>
       </c>
       <c r="H69" t="n">
-        <v>-1.245735922067971e-10</v>
+        <v/>
       </c>
       <c r="I69" t="n">
         <v/>
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4394,7 +4394,7 @@
         <v/>
       </c>
       <c r="J70" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v/>
@@ -4408,19 +4408,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v/>
+        <v>8.407677844713007e-10</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F71" t="n">
         <v/>
@@ -4438,7 +4438,7 @@
         <v/>
       </c>
       <c r="K71" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4449,16 +4449,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v/>
@@ -4470,13 +4470,13 @@
         <v/>
       </c>
       <c r="H72" t="n">
-        <v>-1.245735922067971e-10</v>
+        <v/>
       </c>
       <c r="I72" t="n">
         <v/>
       </c>
       <c r="J72" t="n">
-        <v>9.402960559049205e-10</v>
+        <v/>
       </c>
       <c r="K72" t="n">
         <v/>
@@ -4490,19 +4490,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v/>
       </c>
       <c r="E73" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v/>
@@ -4511,7 +4511,7 @@
         <v/>
       </c>
       <c r="H73" t="n">
-        <v>1.245735922067971e-10</v>
+        <v/>
       </c>
       <c r="I73" t="n">
         <v/>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v/>
@@ -4558,7 +4558,7 @@
         <v/>
       </c>
       <c r="J74" t="n">
-        <v>-9.402960559049205e-10</v>
+        <v/>
       </c>
       <c r="K74" t="n">
         <v/>
@@ -4567,24 +4567,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
       <c r="D75" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F75" t="n">
         <v/>
@@ -4608,21 +4608,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v/>
@@ -4643,27 +4643,27 @@
         <v/>
       </c>
       <c r="K76" t="n">
-        <v>4.202110801181401e-10</v>
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>i8</t>
-        </is>
-      </c>
       <c r="D77" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v/>
@@ -4684,7 +4684,7 @@
         <v/>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4707,10 +4707,10 @@
         <v/>
       </c>
       <c r="E78" t="n">
-        <v>-5.116079998983064e-10</v>
+        <v/>
       </c>
       <c r="F78" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -4722,7 +4722,7 @@
         <v/>
       </c>
       <c r="J78" t="n">
-        <v>-5.854772603182974e-10</v>
+        <v/>
       </c>
       <c r="K78" t="n">
         <v/>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4760,10 +4760,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v/>
+        <v>-6.01969928313581e-08</v>
       </c>
       <c r="J79" t="n">
-        <v>5.854772603182974e-10</v>
+        <v/>
       </c>
       <c r="K79" t="n">
         <v/>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4792,7 +4792,7 @@
         <v/>
       </c>
       <c r="F80" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -4807,7 +4807,7 @@
         <v/>
       </c>
       <c r="K80" t="n">
-        <v>4.202110801181401e-10</v>
+        <v/>
       </c>
     </row>
     <row r="81">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4833,7 +4833,7 @@
         <v/>
       </c>
       <c r="F81" t="n">
-        <v>4.041849264636628e-10</v>
+        <v/>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -4845,10 +4845,10 @@
         <v/>
       </c>
       <c r="J81" t="n">
-        <v>-5.854772603182974e-10</v>
+        <v/>
       </c>
       <c r="K81" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -4889,7 +4889,7 @@
         <v/>
       </c>
       <c r="K82" t="n">
-        <v>-4.202110801181401e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4915,10 +4915,10 @@
         <v/>
       </c>
       <c r="F83" t="n">
-        <v>-4.041849264636628e-10</v>
+        <v/>
       </c>
       <c r="G83" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v/>
@@ -4927,7 +4927,7 @@
         <v/>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K83" t="n">
         <v/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4991,13 +4991,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F85" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -5023,19 +5023,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v/>
       </c>
       <c r="E86" t="n">
-        <v/>
+        <v>-4.602464274042723e-10</v>
       </c>
       <c r="F86" t="n">
         <v/>
@@ -5064,22 +5064,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v/>
       </c>
       <c r="E87" t="n">
-        <v>-5.116079998983064e-10</v>
+        <v/>
       </c>
       <c r="F87" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -5110,32 +5110,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v/>
       </c>
       <c r="E88" t="n">
-        <v>5.116079998983064e-10</v>
+        <v/>
       </c>
       <c r="F88" t="n">
         <v/>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H88" t="n">
         <v/>
       </c>
       <c r="I88" t="n">
-        <v/>
+        <v>-6.01969928313581e-08</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K88" t="n">
-        <v/>
+        <v>-1.665413092094761e-10</v>
       </c>
     </row>
     <row r="89">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v/>
       </c>
       <c r="E89" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -5170,7 +5170,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J89" t="n">
         <v/>
@@ -5192,26 +5192,26 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v/>
+        <v>4.602464274042723e-10</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G90" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v/>
       </c>
       <c r="I90" t="n">
-        <v/>
+        <v>6.01969928313581e-08</v>
       </c>
       <c r="J90" t="n">
         <v/>
@@ -5228,22 +5228,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v/>
       </c>
       <c r="E91" t="n">
-        <v/>
+        <v>-4.602464274042723e-10</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9999999995958151</v>
+        <v/>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -5258,7 +5258,7 @@
         <v/>
       </c>
       <c r="K91" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5293,13 +5293,13 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v/>
       </c>
       <c r="K92" t="n">
-        <v>-4.202110801181401e-10</v>
+        <v/>
       </c>
     </row>
     <row r="93">
@@ -5310,12 +5310,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -5325,7 +5325,7 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>-4.041849264636628e-10</v>
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -5337,10 +5337,10 @@
         <v/>
       </c>
       <c r="J93" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v/>
+        <v>1.66541309209476e-10</v>
       </c>
     </row>
     <row r="94">
@@ -5351,16 +5351,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v/>
@@ -5381,7 +5381,7 @@
         <v/>
       </c>
       <c r="K94" t="n">
-        <v>4.202110801181401e-10</v>
+        <v/>
       </c>
     </row>
     <row r="95">
@@ -5392,12 +5392,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -5419,10 +5419,10 @@
         <v/>
       </c>
       <c r="J95" t="n">
-        <v>5.854772603182974e-10</v>
+        <v/>
       </c>
       <c r="K95" t="n">
-        <v/>
+        <v>1.665413092094761e-10</v>
       </c>
     </row>
     <row r="96">
@@ -5433,12 +5433,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -5474,12 +5474,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -5510,27 +5510,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
       <c r="D98" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v/>
       </c>
       <c r="F98" t="n">
-        <v>-2.099114373407988e-10</v>
+        <v/>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -5551,27 +5551,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="D99" t="n">
         <v/>
       </c>
       <c r="E99" t="n">
-        <v>-5.491117783312115e-09</v>
+        <v/>
       </c>
       <c r="F99" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -5580,7 +5580,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v/>
+        <v>-6.01969928313581e-08</v>
       </c>
       <c r="J99" t="n">
         <v/>
@@ -5592,12 +5592,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5621,13 +5621,13 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v/>
+        <v>6.01969928313581e-08</v>
       </c>
       <c r="J100" t="n">
         <v/>
       </c>
       <c r="K100" t="n">
-        <v>-1.39968236878113e-10</v>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5668,7 +5668,7 @@
         <v/>
       </c>
       <c r="K101" t="n">
-        <v>1.39968236878113e-10</v>
+        <v>-1.390820470571545e-10</v>
       </c>
     </row>
     <row r="102">
@@ -5679,22 +5679,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E102" t="n">
         <v/>
       </c>
       <c r="F102" t="n">
-        <v>-2.099114373407988e-10</v>
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -5709,7 +5709,7 @@
         <v/>
       </c>
       <c r="K102" t="n">
-        <v/>
+        <v>1.390820470571545e-10</v>
       </c>
     </row>
     <row r="103">
@@ -5720,19 +5720,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-5.491117783312115e-09</v>
+        <v/>
       </c>
       <c r="F103" t="n">
         <v/>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -5776,7 +5776,7 @@
         <v/>
       </c>
       <c r="F104" t="n">
-        <v>-2.099114373407988e-10</v>
+        <v/>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -5788,7 +5788,7 @@
         <v/>
       </c>
       <c r="J104" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v/>
@@ -5802,19 +5802,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v/>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F105" t="n">
         <v/>
@@ -5832,7 +5832,7 @@
         <v/>
       </c>
       <c r="K105" t="n">
-        <v/>
+        <v>-1.390820470571545e-10</v>
       </c>
     </row>
     <row r="106">
@@ -5843,22 +5843,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v/>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E107" t="n">
         <v/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5946,7 +5946,7 @@
         <v/>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I108" t="n">
         <v/>
@@ -5955,7 +5955,7 @@
         <v/>
       </c>
       <c r="K108" t="n">
-        <v/>
+        <v>-1.390820470571545e-10</v>
       </c>
     </row>
     <row r="109">
@@ -5971,14 +5971,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v/>
       </c>
       <c r="E109" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v/>
@@ -5993,10 +5993,10 @@
         <v/>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K109" t="n">
-        <v/>
+        <v>1.390820470571545e-10</v>
       </c>
     </row>
     <row r="110">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -6034,10 +6034,10 @@
         <v/>
       </c>
       <c r="J110" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="111">
@@ -6048,28 +6048,28 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v/>
       </c>
       <c r="E111" t="n">
-        <v>-5.491117783312115e-09</v>
+        <v/>
       </c>
       <c r="F111" t="n">
         <v/>
       </c>
       <c r="G111" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v/>
@@ -6089,16 +6089,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v/>
@@ -6107,7 +6107,7 @@
         <v/>
       </c>
       <c r="G112" t="n">
-        <v/>
+        <v>-7.093592402780426e-10</v>
       </c>
       <c r="H112" t="n">
         <v/>
@@ -6119,7 +6119,7 @@
         <v/>
       </c>
       <c r="K112" t="n">
-        <v>-1.39968236878113e-10</v>
+        <v/>
       </c>
     </row>
     <row r="113">
@@ -6130,25 +6130,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v/>
       </c>
       <c r="E113" t="n">
-        <v>5.491117783312115e-09</v>
+        <v/>
       </c>
       <c r="F113" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v/>
+        <v>7.093592402780426e-10</v>
       </c>
       <c r="H113" t="n">
         <v/>
@@ -6160,7 +6160,7 @@
         <v/>
       </c>
       <c r="K113" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -6171,19 +6171,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>-5.491117783312115e-09</v>
+        <v/>
       </c>
       <c r="F114" t="n">
         <v/>
@@ -6201,23 +6201,23 @@
         <v/>
       </c>
       <c r="K114" t="n">
-        <v/>
+        <v>-1.390820470571545e-10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -6230,7 +6230,7 @@
         <v/>
       </c>
       <c r="G115" t="n">
-        <v/>
+        <v>-7.093592402780426e-10</v>
       </c>
       <c r="H115" t="n">
         <v/>
@@ -6242,18 +6242,18 @@
         <v/>
       </c>
       <c r="K115" t="n">
-        <v>-2.069761251636489e-10</v>
+        <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6268,10 +6268,10 @@
         <v/>
       </c>
       <c r="F116" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>1.112106247118414e-10</v>
+        <v/>
       </c>
       <c r="H116" t="n">
         <v/>
@@ -6289,17 +6289,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -6312,13 +6312,13 @@
         <v/>
       </c>
       <c r="G117" t="n">
-        <v/>
+        <v>7.093592402780426e-10</v>
       </c>
       <c r="H117" t="n">
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J117" t="n">
         <v/>
@@ -6335,14 +6335,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
       <c r="D118" t="n">
         <v/>
       </c>
@@ -6353,10 +6353,10 @@
         <v/>
       </c>
       <c r="G118" t="n">
-        <v>1.112106247118414e-10</v>
+        <v/>
       </c>
       <c r="H118" t="n">
-        <v/>
+        <v>-2.745683250188394e-10</v>
       </c>
       <c r="I118" t="n">
         <v/>
@@ -6376,16 +6376,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -6406,7 +6406,7 @@
         <v/>
       </c>
       <c r="K119" t="n">
-        <v>-2.069761251636489e-10</v>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -6417,16 +6417,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v/>
@@ -6438,10 +6438,10 @@
         <v/>
       </c>
       <c r="H120" t="n">
-        <v>7.045416421560636e-10</v>
+        <v/>
       </c>
       <c r="I120" t="n">
-        <v/>
+        <v>3.032711907879272e-10</v>
       </c>
       <c r="J120" t="n">
         <v/>
@@ -6458,12 +6458,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -6479,7 +6479,7 @@
         <v/>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>-2.745683250188394e-10</v>
       </c>
       <c r="I121" t="n">
         <v/>
@@ -6499,16 +6499,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v/>
@@ -6529,7 +6529,7 @@
         <v/>
       </c>
       <c r="K122" t="n">
-        <v>-2.069761251636489e-10</v>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -6540,16 +6540,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>-1.200856627843136e-10</v>
       </c>
       <c r="E123" t="n">
         <v/>
@@ -6581,16 +6581,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v/>
@@ -6602,7 +6602,7 @@
         <v/>
       </c>
       <c r="H124" t="n">
-        <v>7.045416421560636e-10</v>
+        <v/>
       </c>
       <c r="I124" t="n">
         <v/>
@@ -6611,7 +6611,7 @@
         <v/>
       </c>
       <c r="K124" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -6622,16 +6622,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v/>
@@ -6643,10 +6643,10 @@
         <v/>
       </c>
       <c r="H125" t="n">
-        <v>-7.045416421560636e-10</v>
+        <v/>
       </c>
       <c r="I125" t="n">
-        <v/>
+        <v>3.032711907879272e-10</v>
       </c>
       <c r="J125" t="n">
         <v/>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F126" t="n">
         <v/>
@@ -6687,7 +6687,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J126" t="n">
         <v/>
@@ -6704,12 +6704,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -6719,7 +6719,7 @@
         <v/>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -6728,7 +6728,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v/>
+        <v>-3.032711907879272e-10</v>
       </c>
       <c r="J127" t="n">
         <v/>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v/>
@@ -6763,10 +6763,10 @@
         <v/>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I128" t="n">
         <v/>
@@ -6786,19 +6786,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E129" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v/>
@@ -6827,16 +6827,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v/>
+        <v>0.9999999998799144</v>
       </c>
       <c r="E130" t="n">
         <v/>
@@ -6863,27 +6863,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v/>
       </c>
       <c r="E131" t="n">
-        <v>1.695682934061762e-09</v>
+        <v/>
       </c>
       <c r="F131" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -6904,17 +6904,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -6927,7 +6927,7 @@
         <v/>
       </c>
       <c r="G132" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v/>
@@ -6936,7 +6936,7 @@
         <v/>
       </c>
       <c r="J132" t="n">
-        <v>2.610014545282405e-10</v>
+        <v/>
       </c>
       <c r="K132" t="n">
         <v/>
@@ -6945,17 +6945,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -6965,16 +6965,16 @@
         <v/>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G133" t="n">
         <v/>
       </c>
       <c r="H133" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.103576046036602e-09</v>
+        <v/>
       </c>
       <c r="J133" t="n">
         <v/>
@@ -6986,24 +6986,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v/>
       </c>
       <c r="E134" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v/>
@@ -7012,36 +7012,36 @@
         <v/>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I134" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v/>
       </c>
       <c r="K134" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v/>
@@ -7059,7 +7059,7 @@
         <v/>
       </c>
       <c r="J135" t="n">
-        <v>2.610014545282405e-10</v>
+        <v/>
       </c>
       <c r="K135" t="n">
         <v/>
@@ -7073,14 +7073,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
       <c r="D136" t="n">
         <v/>
       </c>
@@ -7091,13 +7091,13 @@
         <v/>
       </c>
       <c r="G136" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>2.103576046036602e-09</v>
+        <v/>
       </c>
       <c r="J136" t="n">
         <v/>
@@ -7114,34 +7114,34 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v/>
       </c>
       <c r="E137" t="n">
-        <v>-1.695682934061762e-09</v>
+        <v/>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G137" t="n">
         <v/>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I137" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
         <v/>
@@ -7155,16 +7155,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E138" t="n">
         <v/>
@@ -7173,16 +7173,16 @@
         <v/>
       </c>
       <c r="G138" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v/>
+        <v>1.340003711858929e-10</v>
       </c>
       <c r="I138" t="n">
         <v/>
       </c>
       <c r="J138" t="n">
-        <v>2.610014545282405e-10</v>
+        <v/>
       </c>
       <c r="K138" t="n">
         <v/>
@@ -7196,12 +7196,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -7214,7 +7214,7 @@
         <v/>
       </c>
       <c r="G139" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v/>
@@ -7223,7 +7223,7 @@
         <v/>
       </c>
       <c r="J139" t="n">
-        <v>-2.610014545282405e-10</v>
+        <v/>
       </c>
       <c r="K139" t="n">
         <v/>
@@ -7237,16 +7237,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v/>
+        <v>0.9999999998148286</v>
       </c>
       <c r="E140" t="n">
         <v/>
@@ -7261,7 +7261,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>-2.103576046036602e-09</v>
+        <v/>
       </c>
       <c r="J140" t="n">
         <v/>
@@ -7278,19 +7278,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D141" t="n">
         <v/>
       </c>
       <c r="E141" t="n">
-        <v>1.695682934061762e-09</v>
+        <v/>
       </c>
       <c r="F141" t="n">
         <v/>
@@ -7299,7 +7299,7 @@
         <v/>
       </c>
       <c r="H141" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v/>
@@ -7319,19 +7319,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F142" t="n">
         <v/>
@@ -7343,7 +7343,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>2.103576046036602e-09</v>
+        <v/>
       </c>
       <c r="J142" t="n">
         <v/>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7372,13 +7372,13 @@
         <v/>
       </c>
       <c r="E143" t="n">
-        <v>-1.695682934061762e-09</v>
+        <v/>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H143" t="n">
         <v/>
@@ -7387,7 +7387,7 @@
         <v/>
       </c>
       <c r="J143" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
         <v/>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E144" t="n">
         <v/>
@@ -7419,13 +7419,13 @@
         <v/>
       </c>
       <c r="G144" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>-4.207152092073205e-09</v>
+        <v/>
       </c>
       <c r="J144" t="n">
         <v/>
@@ -7442,12 +7442,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -7457,7 +7457,7 @@
         <v/>
       </c>
       <c r="F145" t="n">
-        <v/>
+        <v>1.757681139884026e-10</v>
       </c>
       <c r="G145" t="n">
         <v/>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v/>
@@ -7483,19 +7483,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v/>
       </c>
       <c r="E146" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v/>
@@ -7510,7 +7510,7 @@
         <v/>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K146" t="n">
         <v/>
@@ -7519,332 +7519,668 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v/>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>-1.757681139884026e-10</v>
+      </c>
+      <c r="G147" t="n">
+        <v/>
+      </c>
+      <c r="H147" t="n">
+        <v/>
+      </c>
+      <c r="I147" t="n">
+        <v/>
+      </c>
+      <c r="J147" t="n">
+        <v/>
+      </c>
+      <c r="K147" t="n">
+        <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
+      <c r="D148" t="n">
+        <v/>
+      </c>
+      <c r="E148" t="n">
+        <v/>
+      </c>
+      <c r="F148" t="n">
+        <v>-1.757681139884026e-10</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H148" t="n">
+        <v/>
+      </c>
+      <c r="I148" t="n">
+        <v/>
+      </c>
+      <c r="J148" t="n">
+        <v/>
+      </c>
+      <c r="K148" t="n">
+        <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v/>
+      </c>
+      <c r="E149" t="n">
+        <v/>
+      </c>
+      <c r="F149" t="n">
+        <v/>
       </c>
       <c r="G149" t="n">
         <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v/>
+      </c>
+      <c r="I149" t="n">
+        <v/>
+      </c>
+      <c r="J149" t="n">
+        <v/>
+      </c>
+      <c r="K149" t="n">
+        <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v/>
+      </c>
+      <c r="E150" t="n">
+        <v/>
+      </c>
+      <c r="F150" t="n">
+        <v>1.757681139884026e-10</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H150" t="n">
+        <v/>
+      </c>
+      <c r="I150" t="n">
+        <v/>
+      </c>
+      <c r="J150" t="n">
+        <v/>
+      </c>
+      <c r="K150" t="n">
+        <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v/>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v/>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H151" t="n">
+        <v/>
+      </c>
+      <c r="I151" t="n">
+        <v/>
+      </c>
+      <c r="J151" t="n">
+        <v/>
+      </c>
+      <c r="K151" t="n">
+        <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
+      <c r="D152" t="n">
+        <v/>
+      </c>
+      <c r="E152" t="n">
+        <v/>
+      </c>
+      <c r="F152" t="n">
+        <v/>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v/>
+      </c>
+      <c r="J152" t="n">
+        <v/>
+      </c>
+      <c r="K152" t="n">
+        <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v/>
+      </c>
+      <c r="F153" t="n">
+        <v/>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H153" t="n">
+        <v/>
+      </c>
+      <c r="I153" t="n">
+        <v/>
+      </c>
+      <c r="J153" t="n">
+        <v/>
+      </c>
+      <c r="K153" t="n">
+        <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1.851714540675802e-10</v>
+      </c>
+      <c r="E154" t="n">
+        <v/>
+      </c>
+      <c r="F154" t="n">
+        <v>-1.757681139884026e-10</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H154" t="n">
+        <v/>
+      </c>
+      <c r="I154" t="n">
+        <v/>
+      </c>
+      <c r="J154" t="n">
+        <v/>
+      </c>
+      <c r="K154" t="n">
+        <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v/>
+      </c>
+      <c r="E155" t="n">
+        <v/>
+      </c>
+      <c r="F155" t="n">
+        <v/>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H155" t="n">
+        <v/>
+      </c>
+      <c r="I155" t="n">
+        <v/>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v/>
+      </c>
+      <c r="E156" t="n">
+        <v/>
+      </c>
+      <c r="F156" t="n">
+        <v/>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H156" t="n">
+        <v>1.340003711858929e-10</v>
+      </c>
+      <c r="I156" t="n">
+        <v/>
+      </c>
+      <c r="J156" t="n">
+        <v/>
+      </c>
+      <c r="K156" t="n">
+        <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v/>
+      </c>
+      <c r="E157" t="n">
+        <v/>
+      </c>
+      <c r="F157" t="n">
+        <v/>
       </c>
       <c r="G157" t="n">
         <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v/>
+      </c>
+      <c r="I157" t="n">
+        <v/>
+      </c>
+      <c r="J157" t="n">
+        <v/>
+      </c>
+      <c r="K157" t="n">
+        <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v/>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v/>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H158" t="n">
+        <v/>
+      </c>
+      <c r="I158" t="n">
+        <v/>
+      </c>
+      <c r="J158" t="n">
+        <v/>
+      </c>
+      <c r="K158" t="n">
+        <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v/>
+      </c>
+      <c r="E159" t="n">
+        <v/>
+      </c>
+      <c r="F159" t="n">
+        <v/>
       </c>
       <c r="G159" t="n">
         <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v/>
+      </c>
+      <c r="I159" t="n">
+        <v/>
+      </c>
+      <c r="J159" t="n">
+        <v/>
+      </c>
+      <c r="K159" t="n">
+        <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>-1.851714540675802e-10</v>
+      </c>
+      <c r="E160" t="n">
+        <v/>
+      </c>
+      <c r="F160" t="n">
+        <v/>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v/>
+      </c>
+      <c r="J160" t="n">
+        <v/>
+      </c>
+      <c r="K160" t="n">
+        <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
+      <c r="D161" t="n">
+        <v/>
+      </c>
+      <c r="E161" t="n">
+        <v/>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H161" t="n">
+        <v/>
+      </c>
+      <c r="I161" t="n">
+        <v/>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v/>
+      </c>
+      <c r="F162" t="n">
+        <v/>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H162" t="n">
+        <v/>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v/>
+      </c>
+      <c r="K162" t="n">
+        <v/>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7852,19 +8188,40 @@
           <t>i6</t>
         </is>
       </c>
+      <c r="D163" t="n">
+        <v>1.851714540675802e-10</v>
+      </c>
+      <c r="E163" t="n">
+        <v/>
+      </c>
+      <c r="F163" t="n">
+        <v/>
+      </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H163" t="n">
+        <v/>
+      </c>
+      <c r="I163" t="n">
+        <v/>
+      </c>
+      <c r="J163" t="n">
+        <v/>
+      </c>
+      <c r="K163" t="n">
+        <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7872,8 +8229,29 @@
           <t>i7</t>
         </is>
       </c>
+      <c r="D164" t="n">
+        <v/>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v/>
+      </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H164" t="n">
+        <v/>
+      </c>
+      <c r="I164" t="n">
+        <v/>
+      </c>
+      <c r="J164" t="n">
+        <v/>
+      </c>
+      <c r="K164" t="n">
+        <v/>
       </c>
     </row>
     <row r="165">
@@ -12491,7 +12869,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.93751381403256</v>
+        <v>6.718477324716241</v>
       </c>
     </row>
   </sheetData>
@@ -12515,7 +12893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>614.3120000000054</v>
+        <v>37.31200000000536</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.78248449941933</v>
+        <v>52.73650668222792</v>
       </c>
       <c r="G2" t="n">
-        <v>37.21010924761747</v>
+        <v>57.29307042681263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.19132697033777</v>
+        <v>29.29678624944607</v>
       </c>
       <c r="C2" t="n">
-        <v>16.41774924426703</v>
+        <v>23.64334994882386</v>
       </c>
       <c r="D2" t="n">
-        <v>8.130704058117706</v>
+        <v>18.9058063470481</v>
       </c>
       <c r="E2" t="n">
-        <v>20.25281346561226</v>
+        <v>30.15945187697665</v>
       </c>
       <c r="F2" t="n">
-        <v>10.57020372983093</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.40405954842953</v>
+        <v>17.93082110711889</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.450340058271589e-08</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.689122860863488e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>36.98554495056295</v>
+        <v>28.17704182552777</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20.65093525419323</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.21271746461933</v>
       </c>
       <c r="H4" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="I4" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="H5" t="n">
-        <v>13.55117343019618</v>
+        <v>13.5511734331143</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.689122860863488e-09</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.29038269963711</v>
+        <v>18.54591470160023</v>
       </c>
       <c r="H6" t="n">
         <v>23.46430640971666</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8.255532014288399</v>
       </c>
     </row>
     <row r="7">
@@ -809,25 +809,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.98554495056295</v>
+        <v>28.17704182552777</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>23.21271746461933</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>17.95850381196586</v>
       </c>
       <c r="F7" t="n">
-        <v>10.29038269963711</v>
+        <v>18.54591470160023</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.808503108192442</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.450340058271589e-08</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20.65093525419323</v>
       </c>
       <c r="D8" t="n">
         <v>16.19286578342044</v>
       </c>
       <c r="E8" t="n">
-        <v>13.55117343019618</v>
+        <v>13.5511734331143</v>
       </c>
       <c r="F8" t="n">
         <v>23.46430640971666</v>
       </c>
       <c r="G8" t="n">
-        <v>8.808503108192442</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.62916983090976</v>
       </c>
     </row>
     <row r="9">
@@ -874,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.17004962369128</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>8.255532014288399</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>11.17004962369128</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>21.62916983090976</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.90864007826508e-11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.306650757181842e-10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4095533031788553</v>
+        <v>0.4095533029340461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1280315926775771</v>
+        <v>0.3001613439196986</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1623566712803527</v>
+        <v>0.337396848348242</v>
       </c>
       <c r="H4" t="n">
-        <v>0.235363304162016</v>
+        <v>0.2353633041620161</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.908640078265079e-11</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.2610268529069238</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1969663058079014</v>
+        <v>0.1969663058503164</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1495707125392254</v>
+        <v>0.1495707123600775</v>
       </c>
       <c r="H6" t="n">
         <v>0.3410536936652317</v>
@@ -1118,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4095533031788553</v>
+        <v>0.4095533029340461</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.337396848348242</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2610268529069238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1495707125392254</v>
+        <v>0.149570712509763</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1623566712803527</v>
+        <v>0.1199941576779963</v>
       </c>
     </row>
     <row r="8">
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1280315926775771</v>
+        <v>0.3001613439196986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2353633041620161</v>
+        <v>0.235363304162016</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1969663058079014</v>
+        <v>0.1969663058503164</v>
       </c>
       <c r="F8" t="n">
         <v>0.3410536936652317</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.3143799834922733</v>
       </c>
     </row>
     <row r="9">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1623566712803527</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1199941578276819</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.3143799834922733</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9999999999609136</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1309,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999993693349</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5904466968211447</v>
+        <v>0.5904466970659539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8719684073224229</v>
+        <v>0.6998386560803014</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8376433287196473</v>
+        <v>0.662603151651758</v>
       </c>
       <c r="H4" t="n">
         <v>0.764636695837984</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9999999999609136</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.7389731470930763</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8030336941920986</v>
+        <v>0.8030336941496836</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8504292874607746</v>
+        <v>0.8504292876399225</v>
       </c>
       <c r="H6" t="n">
         <v>0.6589463063347683</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5904466968211447</v>
+        <v>0.5904466970659539</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.662603151651758</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.7389731470930763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8504292874607746</v>
+        <v>0.8504292874902371</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8376433287196473</v>
+        <v>0.8800058423220036</v>
       </c>
     </row>
     <row r="8">
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8719684073224229</v>
+        <v>0.6998386560803014</v>
       </c>
       <c r="D8" t="n">
         <v>0.764636695837984</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8030336941920986</v>
+        <v>0.8030336941496836</v>
       </c>
       <c r="F8" t="n">
         <v>0.6589463063347683</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.6856200165077266</v>
       </c>
     </row>
     <row r="9">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8376433287196473</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.8800058421723181</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.6856200165077266</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v/>
       </c>
       <c r="F2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -1603,13 +1603,13 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v/>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -1638,7 +1638,7 @@
         <v/>
       </c>
       <c r="G3" t="n">
-        <v>-2.942492516940841e-09</v>
+        <v/>
       </c>
       <c r="H3" t="n">
         <v/>
@@ -1650,7 +1650,7 @@
         <v/>
       </c>
       <c r="K3" t="n">
-        <v/>
+        <v>-8.14540383296841e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1679,7 +1679,7 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v/>
       </c>
       <c r="K4" t="n">
-        <v/>
+        <v>8.14540383296841e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1707,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F5" t="n">
         <v/>
@@ -1726,10 +1726,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v/>
@@ -1755,13 +1755,13 @@
         <v/>
       </c>
       <c r="E6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>2.942492516940841e-09</v>
+        <v/>
       </c>
       <c r="H6" t="n">
         <v/>
@@ -1770,10 +1770,10 @@
         <v/>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K6" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1799,10 +1799,10 @@
         <v/>
       </c>
       <c r="F7" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H7" t="n">
         <v/>
@@ -1811,10 +1811,10 @@
         <v/>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1846,10 +1846,10 @@
         <v/>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1884,7 +1884,7 @@
         <v/>
       </c>
       <c r="G9" t="n">
-        <v>-2.942492516940841e-09</v>
+        <v/>
       </c>
       <c r="H9" t="n">
         <v/>
@@ -1896,7 +1896,7 @@
         <v/>
       </c>
       <c r="K9" t="n">
-        <v/>
+        <v>-8.14540383296841e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1922,7 +1922,7 @@
         <v/>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -1931,13 +1931,13 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J10" t="n">
         <v/>
       </c>
       <c r="K10" t="n">
-        <v/>
+        <v>-8.14540383296841e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1969,13 +1969,13 @@
         <v/>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I11" t="n">
         <v/>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>1.605486891419448e-10</v>
       </c>
       <c r="K11" t="n">
         <v/>
@@ -1989,25 +1989,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v/>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F12" t="n">
         <v/>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H12" t="n">
         <v/>
@@ -2016,10 +2016,10 @@
         <v/>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K12" t="n">
-        <v/>
+        <v>8.14540383296841e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
       <c r="F13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -2054,7 +2054,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="G14" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v/>
@@ -2101,7 +2101,7 @@
         <v/>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2133,16 +2133,16 @@
         <v/>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I15" t="n">
         <v/>
       </c>
       <c r="J15" t="n">
-        <v/>
+        <v>1.605486891419448e-10</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2153,19 +2153,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v/>
       </c>
       <c r="E16" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v/>
@@ -2174,7 +2174,7 @@
         <v/>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -2189,17 +2189,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2218,29 +2218,29 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v/>
+        <v>1.927046005166983e-10</v>
       </c>
       <c r="J17" t="n">
         <v/>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2250,13 +2250,13 @@
         <v/>
       </c>
       <c r="F18" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v/>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I18" t="n">
         <v/>
@@ -2271,17 +2271,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2291,7 +2291,7 @@
         <v/>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -2306,27 +2306,27 @@
         <v/>
       </c>
       <c r="K19" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v/>
@@ -2335,7 +2335,7 @@
         <v/>
       </c>
       <c r="G20" t="n">
-        <v>2.942492516940841e-09</v>
+        <v/>
       </c>
       <c r="H20" t="n">
         <v/>
@@ -2353,17 +2353,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2382,10 +2382,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K21" t="n">
         <v/>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2426,7 +2426,7 @@
         <v/>
       </c>
       <c r="J22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v/>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2458,10 +2458,10 @@
         <v/>
       </c>
       <c r="G23" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I23" t="n">
         <v/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2496,7 +2496,7 @@
         <v/>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -2505,13 +2505,13 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v/>
+        <v>1.927046005166983e-10</v>
       </c>
       <c r="J24" t="n">
         <v/>
       </c>
       <c r="K24" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v/>
@@ -2540,7 +2540,7 @@
         <v/>
       </c>
       <c r="G25" t="n">
-        <v>6.306651112978423e-10</v>
+        <v/>
       </c>
       <c r="H25" t="n">
         <v/>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2578,10 +2578,10 @@
         <v/>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G26" t="n">
-        <v>0.9999999993693349</v>
+        <v/>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2604,16 +2604,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2.108068627990057e-10</v>
+        <v/>
       </c>
       <c r="E27" t="n">
         <v/>
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v/>
+        <v>1.927046005166983e-10</v>
       </c>
       <c r="J27" t="n">
         <v/>
@@ -2645,16 +2645,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.108068627990057e-10</v>
+        <v/>
       </c>
       <c r="E28" t="n">
         <v/>
@@ -2663,16 +2663,16 @@
         <v/>
       </c>
       <c r="G28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K28" t="n">
         <v/>
@@ -2681,24 +2681,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>i7</t>
-        </is>
-      </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E29" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v/>
@@ -2722,17 +2722,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2751,29 +2751,29 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v/>
+        <v>1.143438023490858e-09</v>
       </c>
       <c r="J30" t="n">
         <v/>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2786,10 +2786,10 @@
         <v/>
       </c>
       <c r="G31" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I31" t="n">
         <v/>
@@ -2804,17 +2804,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2827,13 +2827,13 @@
         <v/>
       </c>
       <c r="G32" t="n">
-        <v>0.9999999993693349</v>
+        <v/>
       </c>
       <c r="H32" t="n">
         <v/>
       </c>
       <c r="I32" t="n">
-        <v/>
+        <v>9.147504187926866e-10</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -2845,14 +2845,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>i8</t>
@@ -2871,7 +2871,7 @@
         <v/>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I33" t="n">
         <v/>
@@ -2880,18 +2880,18 @@
         <v/>
       </c>
       <c r="K33" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2900,16 +2900,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-2.108068627990057e-10</v>
+        <v/>
       </c>
       <c r="E34" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v/>
       </c>
       <c r="G34" t="n">
-        <v>-6.306651112978423e-10</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v/>
@@ -2927,19 +2927,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="D35" t="n">
         <v/>
       </c>
@@ -2950,54 +2950,54 @@
         <v/>
       </c>
       <c r="G35" t="n">
-        <v>6.306651112978423e-10</v>
+        <v/>
       </c>
       <c r="H35" t="n">
         <v/>
       </c>
       <c r="I35" t="n">
-        <v/>
+        <v>9.147504187926866e-10</v>
       </c>
       <c r="J35" t="n">
         <v/>
       </c>
       <c r="K35" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v/>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
       </c>
       <c r="H36" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v/>
+        <v>2.286876046981716e-10</v>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3009,21 +3009,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.108068627990057e-10</v>
+        <v/>
       </c>
       <c r="E37" t="n">
         <v/>
@@ -3038,7 +3038,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v/>
@@ -3050,12 +3050,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3079,7 +3079,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v/>
+        <v>4.573752093963433e-10</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3091,21 +3091,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.000000000210807</v>
+        <v/>
       </c>
       <c r="E39" t="n">
         <v/>
@@ -3120,7 +3120,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v/>
+        <v>-1.600813232887201e-09</v>
       </c>
       <c r="J39" t="n">
         <v/>
@@ -3132,21 +3132,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-2.108068627990057e-10</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v/>
@@ -3161,7 +3161,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v/>
+        <v>2.286876046981716e-10</v>
       </c>
       <c r="J40" t="n">
         <v/>
@@ -3173,17 +3173,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3193,10 +3193,10 @@
         <v/>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G41" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v/>
@@ -3214,7 +3214,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3240,10 +3240,10 @@
         <v/>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I42" t="n">
-        <v/>
+        <v>-1.143438023490858e-09</v>
       </c>
       <c r="J42" t="n">
         <v/>
@@ -3255,7 +3255,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3275,7 +3275,7 @@
         <v/>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -3284,7 +3284,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v/>
+        <v>-4.573752093963433e-10</v>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -3296,7 +3296,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3306,20 +3306,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v/>
       </c>
       <c r="E44" t="n">
-        <v/>
+        <v>-2.06976125163649e-10</v>
       </c>
       <c r="F44" t="n">
         <v/>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H44" t="n">
         <v/>
@@ -3337,17 +3337,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -3369,26 +3369,26 @@
         <v/>
       </c>
       <c r="J45" t="n">
-        <v/>
+        <v>1.733664926682757e-10</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -3410,33 +3410,33 @@
         <v/>
       </c>
       <c r="J46" t="n">
-        <v/>
+        <v>-1.733664926682757e-10</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>-3.112996773373592e-10</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F47" t="n">
         <v/>
@@ -3460,17 +3460,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3483,10 +3483,10 @@
         <v/>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H48" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v/>
@@ -3501,24 +3501,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v/>
+        <v>-2.06976125163649e-10</v>
       </c>
       <c r="F49" t="n">
         <v/>
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K49" t="n">
         <v/>
@@ -3542,17 +3542,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -3583,21 +3583,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E51" t="n">
         <v/>
@@ -3615,7 +3615,7 @@
         <v/>
       </c>
       <c r="J51" t="n">
-        <v/>
+        <v>-1.733664926682757e-10</v>
       </c>
       <c r="K51" t="n">
         <v/>
@@ -3624,24 +3624,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v/>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F52" t="n">
         <v/>
@@ -3656,7 +3656,7 @@
         <v/>
       </c>
       <c r="J52" t="n">
-        <v/>
+        <v>1.733664926682757e-10</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -3665,30 +3665,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>i1</t>
-        </is>
-      </c>
       <c r="D53" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v/>
       </c>
       <c r="F53" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H53" t="n">
         <v/>
@@ -3706,17 +3706,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -3732,7 +3732,7 @@
         <v/>
       </c>
       <c r="H54" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -3747,17 +3747,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -3773,10 +3773,10 @@
         <v/>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I55" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v/>
@@ -3788,17 +3788,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3817,10 +3817,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J56" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v/>
+        <v>-3.112996773373592e-10</v>
       </c>
       <c r="E58" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v/>
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I58" t="n">
         <v/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3928,10 +3928,10 @@
         <v/>
       </c>
       <c r="E59" t="n">
-        <v/>
+        <v>-2.06976125163649e-10</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -3957,16 +3957,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E60" t="n">
         <v/>
@@ -3978,7 +3978,7 @@
         <v/>
       </c>
       <c r="H60" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v/>
@@ -3993,21 +3993,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-8.407677844713007e-10</v>
+        <v/>
       </c>
       <c r="E61" t="n">
         <v/>
@@ -4016,10 +4016,10 @@
         <v/>
       </c>
       <c r="G61" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I61" t="n">
         <v/>
@@ -4028,36 +4028,36 @@
         <v/>
       </c>
       <c r="K61" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v/>
       </c>
       <c r="E62" t="n">
-        <v>2.615071453663314e-10</v>
+        <v/>
       </c>
       <c r="F62" t="n">
         <v/>
       </c>
       <c r="G62" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v/>
@@ -4075,21 +4075,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8.407677844713007e-10</v>
+        <v/>
       </c>
       <c r="E63" t="n">
         <v/>
@@ -4104,7 +4104,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v/>
+        <v>1.349536719647846e-10</v>
       </c>
       <c r="J63" t="n">
         <v/>
@@ -4116,17 +4116,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -4136,7 +4136,7 @@
         <v/>
       </c>
       <c r="F64" t="n">
-        <v/>
+        <v>1.313549023544377e-10</v>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -4145,7 +4145,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J64" t="n">
         <v/>
@@ -4157,7 +4157,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4180,7 +4180,7 @@
         <v/>
       </c>
       <c r="G65" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v/>
@@ -4192,13 +4192,13 @@
         <v/>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -4218,7 +4218,7 @@
         <v/>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -4233,42 +4233,42 @@
         <v/>
       </c>
       <c r="K66" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v/>
       </c>
       <c r="E67" t="n">
-        <v>2.615071453663314e-10</v>
+        <v/>
       </c>
       <c r="F67" t="n">
         <v/>
       </c>
       <c r="G67" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J67" t="n">
         <v/>
@@ -4280,27 +4280,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v/>
       </c>
       <c r="E68" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v/>
+        <v>1.313549023544377e-10</v>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -4315,33 +4315,33 @@
         <v/>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v/>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F69" t="n">
-        <v/>
+        <v>-1.313549023544377e-10</v>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -4350,33 +4350,33 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v/>
+        <v>-1.349536719647846e-10</v>
       </c>
       <c r="J69" t="n">
         <v/>
       </c>
       <c r="K69" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E70" t="n">
         <v/>
@@ -4391,10 +4391,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K70" t="n">
         <v/>
@@ -4403,7 +4403,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8.407677844713007e-10</v>
+        <v/>
       </c>
       <c r="E71" t="n">
         <v/>
@@ -4435,16 +4435,16 @@
         <v/>
       </c>
       <c r="J71" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
       <c r="F72" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -4473,7 +4473,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v/>
+        <v>1.349536719647846e-10</v>
       </c>
       <c r="J72" t="n">
         <v/>
@@ -4485,7 +4485,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4495,20 +4495,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v/>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F73" t="n">
         <v/>
       </c>
       <c r="G73" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v/>
@@ -4526,27 +4526,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E74" t="n">
         <v/>
       </c>
       <c r="F74" t="n">
-        <v/>
+        <v>1.313549023544377e-10</v>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -4555,7 +4555,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v/>
+        <v>1.349536719647846e-10</v>
       </c>
       <c r="J74" t="n">
         <v/>
@@ -4567,7 +4567,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4577,11 +4577,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E75" t="n">
         <v/>
@@ -4596,7 +4596,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v/>
+        <v>-1.349536719647846e-10</v>
       </c>
       <c r="J75" t="n">
         <v/>
@@ -4608,17 +4608,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -4649,7 +4649,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E77" t="n">
         <v/>
@@ -4678,7 +4678,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v/>
+        <v>1.349536719647846e-10</v>
       </c>
       <c r="J77" t="n">
         <v/>
@@ -4695,12 +4695,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -4736,12 +4736,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4754,13 +4754,13 @@
         <v/>
       </c>
       <c r="G79" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>-6.01969928313581e-08</v>
+        <v/>
       </c>
       <c r="J79" t="n">
         <v/>
@@ -4772,17 +4772,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4792,7 +4792,7 @@
         <v/>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -4804,7 +4804,7 @@
         <v/>
       </c>
       <c r="J80" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v/>
@@ -4813,7 +4813,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4848,18 +4848,18 @@
         <v/>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>1.695293755295683e-09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4889,36 +4889,36 @@
         <v/>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>1.695293755295683e-09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v/>
       </c>
       <c r="E83" t="n">
-        <v/>
+        <v>-1.550406481419463e-10</v>
       </c>
       <c r="F83" t="n">
         <v/>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H83" t="n">
         <v/>
@@ -4936,21 +4936,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0.9999999999609136</v>
       </c>
       <c r="E84" t="n">
         <v/>
@@ -4968,7 +4968,7 @@
         <v/>
       </c>
       <c r="J84" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v/>
@@ -4977,17 +4977,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4997,7 +4997,7 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2.172419663250048e-09</v>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -5018,27 +5018,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v/>
       </c>
       <c r="E86" t="n">
-        <v>-4.602464274042723e-10</v>
+        <v/>
       </c>
       <c r="F86" t="n">
-        <v/>
+        <v>-2.172419663250048e-09</v>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -5053,23 +5053,23 @@
         <v/>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -5079,7 +5079,7 @@
         <v/>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -5094,30 +5094,30 @@
         <v/>
       </c>
       <c r="K87" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v/>
       </c>
       <c r="E88" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v/>
@@ -5129,36 +5129,36 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>-6.01969928313581e-08</v>
+        <v/>
       </c>
       <c r="J88" t="n">
         <v/>
       </c>
       <c r="K88" t="n">
-        <v>-1.665413092094761e-10</v>
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v/>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -5176,30 +5176,30 @@
         <v/>
       </c>
       <c r="K89" t="n">
-        <v/>
+        <v>-1.695293755295683e-09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E90" t="n">
-        <v>4.602464274042723e-10</v>
+        <v/>
       </c>
       <c r="F90" t="n">
         <v/>
@@ -5211,36 +5211,36 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>6.01969928313581e-08</v>
+        <v/>
       </c>
       <c r="J90" t="n">
         <v/>
       </c>
       <c r="K90" t="n">
-        <v/>
+        <v>1.695293755295683e-09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v/>
       </c>
       <c r="E91" t="n">
-        <v>-4.602464274042723e-10</v>
+        <v/>
       </c>
       <c r="F91" t="n">
         <v/>
@@ -5249,13 +5249,13 @@
         <v/>
       </c>
       <c r="H91" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v/>
       </c>
       <c r="J91" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -5264,21 +5264,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v/>
@@ -5293,7 +5293,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J92" t="n">
         <v/>
@@ -5305,17 +5305,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -5325,7 +5325,7 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v/>
+        <v>-2.172419663250048e-09</v>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -5337,33 +5337,33 @@
         <v/>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K93" t="n">
-        <v>1.66541309209476e-10</v>
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E94" t="n">
-        <v/>
+        <v>-1.550406481419463e-10</v>
       </c>
       <c r="F94" t="n">
         <v/>
@@ -5387,7 +5387,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5397,11 +5397,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v/>
@@ -5422,27 +5422,27 @@
         <v/>
       </c>
       <c r="K95" t="n">
-        <v>1.665413092094761e-10</v>
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E96" t="n">
         <v/>
@@ -5460,7 +5460,7 @@
         <v/>
       </c>
       <c r="J96" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v/>
@@ -5469,17 +5469,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -5489,7 +5489,7 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>-1.342368530721737e-10</v>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -5510,27 +5510,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E98" t="n">
         <v/>
       </c>
       <c r="F98" t="n">
-        <v/>
+        <v>1.342368530721737e-10</v>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -5551,17 +5551,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -5571,7 +5571,7 @@
         <v/>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>-1.342368530721737e-10</v>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -5580,29 +5580,29 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>-6.01969928313581e-08</v>
+        <v/>
       </c>
       <c r="J99" t="n">
         <v/>
       </c>
       <c r="K99" t="n">
-        <v/>
+        <v>-1.470192141701035e-10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -5621,29 +5621,29 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>6.01969928313581e-08</v>
+        <v/>
       </c>
       <c r="J100" t="n">
         <v/>
       </c>
       <c r="K100" t="n">
-        <v/>
+        <v>1.470192141701035e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
       <c r="F101" t="n">
-        <v/>
+        <v>1.342368530721737e-10</v>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -5668,23 +5668,23 @@
         <v/>
       </c>
       <c r="K101" t="n">
-        <v>-1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -5703,39 +5703,39 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v/>
       </c>
       <c r="K102" t="n">
-        <v>1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>i3</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E103" t="n">
         <v/>
       </c>
       <c r="F103" t="n">
-        <v/>
+        <v>-1.342368530721737e-10</v>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -5756,17 +5756,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -5785,10 +5785,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K104" t="n">
         <v/>
@@ -5797,17 +5797,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -5817,7 +5817,7 @@
         <v/>
       </c>
       <c r="F105" t="n">
-        <v/>
+        <v>-1.342368530721737e-10</v>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -5832,27 +5832,27 @@
         <v/>
       </c>
       <c r="K105" t="n">
-        <v>-1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E106" t="n">
         <v/>
@@ -5873,36 +5873,36 @@
         <v/>
       </c>
       <c r="K106" t="n">
-        <v/>
+        <v>-1.470192141701035e-10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v/>
       </c>
       <c r="E107" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v/>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H107" t="n">
         <v/>
@@ -5920,17 +5920,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5940,7 +5940,7 @@
         <v/>
       </c>
       <c r="F108" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -5955,64 +5955,64 @@
         <v/>
       </c>
       <c r="K108" t="n">
-        <v>-1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v/>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F109" t="n">
         <v/>
       </c>
       <c r="G109" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v/>
       </c>
       <c r="I109" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v/>
       </c>
       <c r="K109" t="n">
-        <v>1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -6028,13 +6028,13 @@
         <v/>
       </c>
       <c r="H110" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v/>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K110" t="n">
         <v/>
@@ -6043,21 +6043,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v/>
@@ -6066,10 +6066,10 @@
         <v/>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I111" t="n">
         <v/>
@@ -6078,23 +6078,23 @@
         <v/>
       </c>
       <c r="K111" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -6107,7 +6107,7 @@
         <v/>
       </c>
       <c r="G112" t="n">
-        <v>-7.093592402780426e-10</v>
+        <v/>
       </c>
       <c r="H112" t="n">
         <v/>
@@ -6125,30 +6125,30 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v/>
       </c>
       <c r="E113" t="n">
-        <v/>
+        <v>3.040594897632497e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G113" t="n">
-        <v>7.093592402780426e-10</v>
+        <v/>
       </c>
       <c r="H113" t="n">
         <v/>
@@ -6160,27 +6160,27 @@
         <v/>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E114" t="n">
         <v/>
@@ -6192,7 +6192,7 @@
         <v/>
       </c>
       <c r="H114" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v/>
@@ -6201,36 +6201,36 @@
         <v/>
       </c>
       <c r="K114" t="n">
-        <v>-1.390820470571545e-10</v>
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v/>
       </c>
       <c r="E115" t="n">
-        <v/>
+        <v>3.040594897632497e-10</v>
       </c>
       <c r="F115" t="n">
         <v/>
       </c>
       <c r="G115" t="n">
-        <v>-7.093592402780426e-10</v>
+        <v/>
       </c>
       <c r="H115" t="n">
         <v/>
@@ -6248,17 +6248,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -6268,7 +6268,7 @@
         <v/>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -6277,7 +6277,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v/>
@@ -6289,17 +6289,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -6309,10 +6309,10 @@
         <v/>
       </c>
       <c r="F117" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>7.093592402780426e-10</v>
+        <v/>
       </c>
       <c r="H117" t="n">
         <v/>
@@ -6330,21 +6330,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>i1</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>i3</t>
-        </is>
-      </c>
       <c r="D118" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v/>
@@ -6356,7 +6356,7 @@
         <v/>
       </c>
       <c r="H118" t="n">
-        <v>-2.745683250188394e-10</v>
+        <v/>
       </c>
       <c r="I118" t="n">
         <v/>
@@ -6371,24 +6371,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>i2</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>i4</t>
-        </is>
-      </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E119" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v/>
@@ -6412,21 +6412,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E120" t="n">
         <v/>
@@ -6438,10 +6438,10 @@
         <v/>
       </c>
       <c r="H120" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>3.032711907879272e-10</v>
+        <v/>
       </c>
       <c r="J120" t="n">
         <v/>
@@ -6453,17 +6453,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -6476,10 +6476,10 @@
         <v/>
       </c>
       <c r="G121" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>-2.745683250188394e-10</v>
+        <v/>
       </c>
       <c r="I121" t="n">
         <v/>
@@ -6494,21 +6494,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E122" t="n">
         <v/>
@@ -6523,7 +6523,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v/>
@@ -6535,27 +6535,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-1.200856627843136e-10</v>
+        <v/>
       </c>
       <c r="E123" t="n">
         <v/>
       </c>
       <c r="F123" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -6567,7 +6567,7 @@
         <v/>
       </c>
       <c r="J123" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v/>
@@ -6576,48 +6576,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>i8</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="n">
-        <v/>
+          <t>i1</t>
+        </is>
       </c>
       <c r="F124" t="n">
-        <v/>
-      </c>
-      <c r="G124" t="n">
-        <v/>
-      </c>
-      <c r="H124" t="n">
-        <v/>
-      </c>
-      <c r="I124" t="n">
-        <v/>
-      </c>
-      <c r="J124" t="n">
-        <v/>
-      </c>
-      <c r="K124" t="n">
-        <v>1</v>
+        <v>1.757681139884026e-10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6630,35 +6609,14 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
       <c r="E125" t="n">
-        <v/>
-      </c>
-      <c r="F125" t="n">
-        <v/>
-      </c>
-      <c r="G125" t="n">
-        <v/>
-      </c>
-      <c r="H125" t="n">
-        <v/>
-      </c>
-      <c r="I125" t="n">
-        <v>3.032711907879272e-10</v>
-      </c>
-      <c r="J125" t="n">
-        <v/>
-      </c>
-      <c r="K125" t="n">
-        <v/>
+        <v>6.696589492255773e-10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6668,79 +6626,37 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v/>
+          <t>i6</t>
+        </is>
       </c>
       <c r="F126" t="n">
-        <v/>
-      </c>
-      <c r="G126" t="n">
-        <v/>
-      </c>
-      <c r="H126" t="n">
-        <v/>
-      </c>
-      <c r="I126" t="n">
-        <v/>
-      </c>
-      <c r="J126" t="n">
-        <v/>
-      </c>
-      <c r="K126" t="n">
-        <v/>
+        <v>-1.757681139884026e-10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v/>
-      </c>
-      <c r="E127" t="n">
-        <v/>
+          <t>i1</t>
+        </is>
       </c>
       <c r="F127" t="n">
-        <v/>
-      </c>
-      <c r="G127" t="n">
-        <v/>
-      </c>
-      <c r="H127" t="n">
-        <v/>
-      </c>
-      <c r="I127" t="n">
-        <v>-3.032711907879272e-10</v>
-      </c>
-      <c r="J127" t="n">
-        <v/>
-      </c>
-      <c r="K127" t="n">
-        <v/>
+        <v>-1.757681139884026e-10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6750,79 +6666,40 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
-      <c r="E128" t="n">
-        <v/>
-      </c>
       <c r="F128" t="n">
-        <v/>
-      </c>
-      <c r="G128" t="n">
-        <v/>
-      </c>
-      <c r="H128" t="n">
-        <v/>
-      </c>
-      <c r="I128" t="n">
-        <v/>
-      </c>
-      <c r="J128" t="n">
-        <v/>
-      </c>
-      <c r="K128" t="n">
-        <v/>
+        <v>1.757681139884026e-10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v/>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v/>
-      </c>
-      <c r="G129" t="n">
-        <v/>
-      </c>
-      <c r="H129" t="n">
-        <v/>
-      </c>
-      <c r="I129" t="n">
-        <v/>
+          <t>i7</t>
+        </is>
       </c>
       <c r="J129" t="n">
-        <v/>
-      </c>
-      <c r="K129" t="n">
-        <v/>
+        <v>7.874678871182792e-10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6832,43 +6709,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>0.9999999998799144</v>
+          <t>i2</t>
+        </is>
       </c>
       <c r="E130" t="n">
-        <v/>
-      </c>
-      <c r="F130" t="n">
-        <v/>
-      </c>
-      <c r="G130" t="n">
-        <v/>
-      </c>
-      <c r="H130" t="n">
-        <v/>
-      </c>
-      <c r="I130" t="n">
-        <v/>
-      </c>
-      <c r="J130" t="n">
-        <v/>
-      </c>
-      <c r="K130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6876,158 +6732,77 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v/>
-      </c>
-      <c r="E131" t="n">
-        <v/>
-      </c>
       <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v/>
-      </c>
-      <c r="H131" t="n">
-        <v/>
-      </c>
-      <c r="I131" t="n">
-        <v/>
-      </c>
-      <c r="J131" t="n">
-        <v/>
-      </c>
-      <c r="K131" t="n">
-        <v/>
+        <v>-1.757681139884026e-10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v/>
-      </c>
-      <c r="E132" t="n">
-        <v/>
-      </c>
-      <c r="F132" t="n">
-        <v/>
-      </c>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" t="n">
-        <v/>
-      </c>
-      <c r="I132" t="n">
-        <v/>
+          <t>i7</t>
+        </is>
       </c>
       <c r="J132" t="n">
-        <v/>
-      </c>
-      <c r="K132" t="n">
-        <v/>
+        <v>-6.706382599908777e-10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v/>
-      </c>
-      <c r="E133" t="n">
-        <v/>
-      </c>
-      <c r="F133" t="n">
-        <v/>
-      </c>
-      <c r="G133" t="n">
-        <v/>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v/>
-      </c>
-      <c r="K133" t="n">
-        <v/>
+        <v>-7.874678871182792e-10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v/>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
-      <c r="F134" t="n">
-        <v/>
+          <t>i2</t>
+        </is>
       </c>
       <c r="G134" t="n">
-        <v/>
-      </c>
-      <c r="H134" t="n">
-        <v/>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v/>
-      </c>
-      <c r="K134" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7037,32 +6812,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>1</v>
+          <t>i3</t>
+        </is>
       </c>
       <c r="E135" t="n">
-        <v/>
+        <v>-6.696589492255773e-10</v>
       </c>
       <c r="F135" t="n">
-        <v/>
-      </c>
-      <c r="G135" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v/>
-      </c>
-      <c r="I135" t="n">
-        <v/>
-      </c>
-      <c r="J135" t="n">
-        <v/>
-      </c>
-      <c r="K135" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -7073,37 +6833,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v/>
+          <t>i4</t>
+        </is>
       </c>
       <c r="E136" t="n">
-        <v/>
-      </c>
-      <c r="F136" t="n">
-        <v/>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v/>
-      </c>
-      <c r="J136" t="n">
-        <v/>
-      </c>
-      <c r="K136" t="n">
-        <v/>
+        <v>6.696589492255773e-10</v>
       </c>
     </row>
     <row r="137">
@@ -7114,37 +6853,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v/>
-      </c>
-      <c r="E137" t="n">
-        <v/>
-      </c>
-      <c r="F137" t="n">
-        <v/>
-      </c>
-      <c r="G137" t="n">
-        <v/>
-      </c>
-      <c r="H137" t="n">
-        <v/>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
+          <t>i5</t>
+        </is>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="n">
-        <v/>
+        <v>7.874678871182792e-10</v>
       </c>
     </row>
     <row r="138">
@@ -7155,37 +6873,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v/>
+          <t>i6</t>
+        </is>
       </c>
       <c r="E138" t="n">
-        <v/>
-      </c>
-      <c r="F138" t="n">
-        <v/>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1.340003711858929e-10</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v/>
-      </c>
-      <c r="J138" t="n">
-        <v/>
-      </c>
-      <c r="K138" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -7196,37 +6896,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v/>
-      </c>
-      <c r="E139" t="n">
-        <v/>
-      </c>
-      <c r="F139" t="n">
-        <v/>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="n">
-        <v/>
-      </c>
-      <c r="I139" t="n">
-        <v/>
+          <t>i7</t>
+        </is>
       </c>
       <c r="J139" t="n">
-        <v/>
-      </c>
-      <c r="K139" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -7248,27 +6927,6 @@
       <c r="D140" t="n">
         <v>0.9999999998148286</v>
       </c>
-      <c r="E140" t="n">
-        <v/>
-      </c>
-      <c r="F140" t="n">
-        <v/>
-      </c>
-      <c r="G140" t="n">
-        <v/>
-      </c>
-      <c r="H140" t="n">
-        <v/>
-      </c>
-      <c r="I140" t="n">
-        <v/>
-      </c>
-      <c r="J140" t="n">
-        <v/>
-      </c>
-      <c r="K140" t="n">
-        <v/>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7286,29 +6944,8 @@
           <t>i6</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v/>
-      </c>
-      <c r="E141" t="n">
-        <v/>
-      </c>
-      <c r="F141" t="n">
-        <v/>
-      </c>
-      <c r="G141" t="n">
-        <v/>
-      </c>
       <c r="H141" t="n">
         <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v/>
-      </c>
-      <c r="J141" t="n">
-        <v/>
-      </c>
-      <c r="K141" t="n">
-        <v/>
       </c>
     </row>
     <row r="142">
@@ -7330,27 +6967,6 @@
       <c r="D142" t="n">
         <v>1</v>
       </c>
-      <c r="E142" t="n">
-        <v/>
-      </c>
-      <c r="F142" t="n">
-        <v/>
-      </c>
-      <c r="G142" t="n">
-        <v/>
-      </c>
-      <c r="H142" t="n">
-        <v/>
-      </c>
-      <c r="I142" t="n">
-        <v/>
-      </c>
-      <c r="J142" t="n">
-        <v/>
-      </c>
-      <c r="K142" t="n">
-        <v/>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7368,29 +6984,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v/>
-      </c>
-      <c r="E143" t="n">
-        <v/>
-      </c>
-      <c r="F143" t="n">
-        <v/>
-      </c>
-      <c r="G143" t="n">
-        <v/>
-      </c>
-      <c r="H143" t="n">
-        <v/>
-      </c>
-      <c r="I143" t="n">
-        <v/>
-      </c>
       <c r="J143" t="n">
         <v>1</v>
-      </c>
-      <c r="K143" t="n">
-        <v/>
       </c>
     </row>
     <row r="144">
@@ -7409,29 +7004,11 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v/>
-      </c>
-      <c r="E144" t="n">
-        <v/>
-      </c>
-      <c r="F144" t="n">
-        <v/>
-      </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v/>
-      </c>
-      <c r="J144" t="n">
-        <v/>
-      </c>
-      <c r="K144" t="n">
-        <v/>
       </c>
     </row>
     <row r="145">
@@ -7450,29 +7027,14 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v/>
-      </c>
-      <c r="E145" t="n">
-        <v/>
-      </c>
       <c r="F145" t="n">
         <v>1.757681139884026e-10</v>
       </c>
-      <c r="G145" t="n">
-        <v/>
-      </c>
-      <c r="H145" t="n">
-        <v/>
-      </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
-      </c>
-      <c r="K145" t="n">
-        <v/>
       </c>
     </row>
     <row r="146">
@@ -7491,29 +7053,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v/>
-      </c>
       <c r="E146" t="n">
         <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v/>
-      </c>
-      <c r="G146" t="n">
-        <v/>
-      </c>
-      <c r="H146" t="n">
-        <v/>
-      </c>
-      <c r="I146" t="n">
-        <v/>
-      </c>
-      <c r="J146" t="n">
-        <v/>
-      </c>
-      <c r="K146" t="n">
-        <v/>
       </c>
     </row>
     <row r="147">
@@ -7535,27 +7076,9 @@
       <c r="D147" t="n">
         <v>1</v>
       </c>
-      <c r="E147" t="n">
-        <v/>
-      </c>
       <c r="F147" t="n">
         <v>-1.757681139884026e-10</v>
       </c>
-      <c r="G147" t="n">
-        <v/>
-      </c>
-      <c r="H147" t="n">
-        <v/>
-      </c>
-      <c r="I147" t="n">
-        <v/>
-      </c>
-      <c r="J147" t="n">
-        <v/>
-      </c>
-      <c r="K147" t="n">
-        <v/>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7573,30 +7096,9 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v/>
-      </c>
-      <c r="E148" t="n">
-        <v/>
-      </c>
       <c r="F148" t="n">
         <v>-1.757681139884026e-10</v>
       </c>
-      <c r="G148" t="n">
-        <v/>
-      </c>
-      <c r="H148" t="n">
-        <v/>
-      </c>
-      <c r="I148" t="n">
-        <v/>
-      </c>
-      <c r="J148" t="n">
-        <v/>
-      </c>
-      <c r="K148" t="n">
-        <v/>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7614,29 +7116,8 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v/>
-      </c>
-      <c r="E149" t="n">
-        <v/>
-      </c>
-      <c r="F149" t="n">
-        <v/>
-      </c>
       <c r="G149" t="n">
         <v>1</v>
-      </c>
-      <c r="H149" t="n">
-        <v/>
-      </c>
-      <c r="I149" t="n">
-        <v/>
-      </c>
-      <c r="J149" t="n">
-        <v/>
-      </c>
-      <c r="K149" t="n">
-        <v/>
       </c>
     </row>
     <row r="150">
@@ -7655,30 +7136,9 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v/>
-      </c>
-      <c r="E150" t="n">
-        <v/>
-      </c>
       <c r="F150" t="n">
         <v>1.757681139884026e-10</v>
       </c>
-      <c r="G150" t="n">
-        <v/>
-      </c>
-      <c r="H150" t="n">
-        <v/>
-      </c>
-      <c r="I150" t="n">
-        <v/>
-      </c>
-      <c r="J150" t="n">
-        <v/>
-      </c>
-      <c r="K150" t="n">
-        <v/>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7696,29 +7156,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v/>
-      </c>
       <c r="E151" t="n">
         <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v/>
-      </c>
-      <c r="G151" t="n">
-        <v/>
-      </c>
-      <c r="H151" t="n">
-        <v/>
-      </c>
-      <c r="I151" t="n">
-        <v/>
-      </c>
-      <c r="J151" t="n">
-        <v/>
-      </c>
-      <c r="K151" t="n">
-        <v/>
       </c>
     </row>
     <row r="152">
@@ -7737,29 +7176,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v/>
-      </c>
-      <c r="E152" t="n">
-        <v/>
-      </c>
-      <c r="F152" t="n">
-        <v/>
-      </c>
-      <c r="G152" t="n">
-        <v/>
-      </c>
       <c r="H152" t="n">
         <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v/>
-      </c>
-      <c r="J152" t="n">
-        <v/>
-      </c>
-      <c r="K152" t="n">
-        <v/>
       </c>
     </row>
     <row r="153">
@@ -7781,27 +7199,6 @@
       <c r="D153" t="n">
         <v>1</v>
       </c>
-      <c r="E153" t="n">
-        <v/>
-      </c>
-      <c r="F153" t="n">
-        <v/>
-      </c>
-      <c r="G153" t="n">
-        <v/>
-      </c>
-      <c r="H153" t="n">
-        <v/>
-      </c>
-      <c r="I153" t="n">
-        <v/>
-      </c>
-      <c r="J153" t="n">
-        <v/>
-      </c>
-      <c r="K153" t="n">
-        <v/>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7822,27 +7219,9 @@
       <c r="D154" t="n">
         <v>1.851714540675802e-10</v>
       </c>
-      <c r="E154" t="n">
-        <v/>
-      </c>
       <c r="F154" t="n">
         <v>-1.757681139884026e-10</v>
       </c>
-      <c r="G154" t="n">
-        <v/>
-      </c>
-      <c r="H154" t="n">
-        <v/>
-      </c>
-      <c r="I154" t="n">
-        <v/>
-      </c>
-      <c r="J154" t="n">
-        <v/>
-      </c>
-      <c r="K154" t="n">
-        <v/>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7860,29 +7239,8 @@
           <t>i7</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v/>
-      </c>
-      <c r="E155" t="n">
-        <v/>
-      </c>
-      <c r="F155" t="n">
-        <v/>
-      </c>
-      <c r="G155" t="n">
-        <v/>
-      </c>
-      <c r="H155" t="n">
-        <v/>
-      </c>
-      <c r="I155" t="n">
-        <v/>
-      </c>
       <c r="J155" t="n">
         <v>1</v>
-      </c>
-      <c r="K155" t="n">
-        <v/>
       </c>
     </row>
     <row r="156">
@@ -7901,30 +7259,9 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v/>
-      </c>
-      <c r="E156" t="n">
-        <v/>
-      </c>
-      <c r="F156" t="n">
-        <v/>
-      </c>
-      <c r="G156" t="n">
-        <v/>
-      </c>
       <c r="H156" t="n">
         <v>1.340003711858929e-10</v>
       </c>
-      <c r="I156" t="n">
-        <v/>
-      </c>
-      <c r="J156" t="n">
-        <v/>
-      </c>
-      <c r="K156" t="n">
-        <v/>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7942,29 +7279,8 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v/>
-      </c>
-      <c r="E157" t="n">
-        <v/>
-      </c>
-      <c r="F157" t="n">
-        <v/>
-      </c>
       <c r="G157" t="n">
         <v>1</v>
-      </c>
-      <c r="H157" t="n">
-        <v/>
-      </c>
-      <c r="I157" t="n">
-        <v/>
-      </c>
-      <c r="J157" t="n">
-        <v/>
-      </c>
-      <c r="K157" t="n">
-        <v/>
       </c>
     </row>
     <row r="158">
@@ -7983,29 +7299,8 @@
           <t>i5</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v/>
-      </c>
       <c r="E158" t="n">
         <v>1</v>
-      </c>
-      <c r="F158" t="n">
-        <v/>
-      </c>
-      <c r="G158" t="n">
-        <v/>
-      </c>
-      <c r="H158" t="n">
-        <v/>
-      </c>
-      <c r="I158" t="n">
-        <v/>
-      </c>
-      <c r="J158" t="n">
-        <v/>
-      </c>
-      <c r="K158" t="n">
-        <v/>
       </c>
     </row>
     <row r="159">
@@ -8024,29 +7319,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v/>
-      </c>
-      <c r="E159" t="n">
-        <v/>
-      </c>
-      <c r="F159" t="n">
-        <v/>
-      </c>
       <c r="G159" t="n">
         <v>1</v>
-      </c>
-      <c r="H159" t="n">
-        <v/>
-      </c>
-      <c r="I159" t="n">
-        <v/>
-      </c>
-      <c r="J159" t="n">
-        <v/>
-      </c>
-      <c r="K159" t="n">
-        <v/>
       </c>
     </row>
     <row r="160">
@@ -8068,26 +7342,8 @@
       <c r="D160" t="n">
         <v>-1.851714540675802e-10</v>
       </c>
-      <c r="E160" t="n">
-        <v/>
-      </c>
-      <c r="F160" t="n">
-        <v/>
-      </c>
-      <c r="G160" t="n">
-        <v/>
-      </c>
       <c r="H160" t="n">
         <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v/>
-      </c>
-      <c r="J160" t="n">
-        <v/>
-      </c>
-      <c r="K160" t="n">
-        <v/>
       </c>
     </row>
     <row r="161">
@@ -8106,29 +7362,11 @@
           <t>i3</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v/>
-      </c>
-      <c r="E161" t="n">
-        <v/>
-      </c>
       <c r="F161" t="n">
         <v>1</v>
       </c>
-      <c r="G161" t="n">
-        <v/>
-      </c>
-      <c r="H161" t="n">
-        <v/>
-      </c>
-      <c r="I161" t="n">
-        <v/>
-      </c>
       <c r="J161" t="n">
         <v>1</v>
-      </c>
-      <c r="K161" t="n">
-        <v/>
       </c>
     </row>
     <row r="162">
@@ -8150,26 +7388,8 @@
       <c r="D162" t="n">
         <v>1</v>
       </c>
-      <c r="E162" t="n">
-        <v/>
-      </c>
-      <c r="F162" t="n">
-        <v/>
-      </c>
-      <c r="G162" t="n">
-        <v/>
-      </c>
-      <c r="H162" t="n">
-        <v/>
-      </c>
       <c r="I162" t="n">
         <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v/>
-      </c>
-      <c r="K162" t="n">
-        <v/>
       </c>
     </row>
     <row r="163">
@@ -8191,27 +7411,6 @@
       <c r="D163" t="n">
         <v>1.851714540675802e-10</v>
       </c>
-      <c r="E163" t="n">
-        <v/>
-      </c>
-      <c r="F163" t="n">
-        <v/>
-      </c>
-      <c r="G163" t="n">
-        <v/>
-      </c>
-      <c r="H163" t="n">
-        <v/>
-      </c>
-      <c r="I163" t="n">
-        <v/>
-      </c>
-      <c r="J163" t="n">
-        <v/>
-      </c>
-      <c r="K163" t="n">
-        <v/>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8229,29 +7428,8 @@
           <t>i7</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v/>
-      </c>
       <c r="E164" t="n">
         <v>1</v>
-      </c>
-      <c r="F164" t="n">
-        <v/>
-      </c>
-      <c r="G164" t="n">
-        <v/>
-      </c>
-      <c r="H164" t="n">
-        <v/>
-      </c>
-      <c r="I164" t="n">
-        <v/>
-      </c>
-      <c r="J164" t="n">
-        <v/>
-      </c>
-      <c r="K164" t="n">
-        <v/>
       </c>
     </row>
     <row r="165">
@@ -12869,7 +12047,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6.718477324716241</v>
+        <v>3.038185622685728</v>
       </c>
     </row>
   </sheetData>
@@ -12893,7 +12071,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>37.31200000000536</v>
+        <v>602.7959999999998</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_all.xlsx
+++ b/8node_spain/output_all.xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0002387032028114377</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52.73650668222792</v>
+        <v>1.210170751534994</v>
       </c>
       <c r="G2" t="n">
-        <v>57.29307042681263</v>
+        <v>0.1218732777533483</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,16 +562,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.29678624944607</v>
+        <v>1.332282732491154</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64334994882386</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9058063470481</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30.15945187697665</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.93082110711889</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0003978386713523962</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.689122860863488e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.17704182552777</v>
+        <v>2.016951252558324</v>
       </c>
       <c r="H3" t="n">
-        <v>20.65093525419323</v>
+        <v>0.2031221295889138</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0003978386713523962</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.21271746461933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.19286578342044</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13.5511734331143</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.689122860863488e-09</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.54591470160023</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.46430640971666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.255532014288399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -809,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.17704182552777</v>
+        <v>2.016951252558324</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21271746461933</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.95850381196586</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.54591470160023</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>20.65093525419323</v>
+        <v>0.2031221295889138</v>
       </c>
       <c r="D8" t="n">
-        <v>16.19286578342044</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.5511734331143</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.46430640971666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.62916983090976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.255532014288399</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>21.62916983090976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-2.753954988614271e-12</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.069303504034217e-12</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.90864007826508e-11</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4095533029340461</v>
+        <v>0.4058039128516652</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3001613439196986</v>
+        <v>0.3001613442263265</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.337396848348242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2353633041620161</v>
+        <v>0.1039725890225484</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.908640078265079e-11</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1.931121929032997e-12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2610268529069238</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1969663058503164</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1495707123600775</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3410536936652317</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0.4095533029340461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.337396848348242</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2610268529069238</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.149570712509763</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1199941576779963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3001613439196986</v>
+        <v>0.295683565936274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.235363304162016</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1969663058503164</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3410536936652317</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3143799834922733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-3.175015382770874e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-4.74483348442365e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.279082766948865e-12</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1199941578276819</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3143799834922733</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1.000000000002754</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9999999999969307</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999609136</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5904466970659539</v>
+        <v>0.5941960871483347</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6998386560803014</v>
+        <v>0.6998386557736735</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.662603151651758</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.764636695837984</v>
+        <v>0.8960274109774516</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1365,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999999609136</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.000000000001931</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7389731470930763</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8030336941496836</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8504292876399225</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6589463063347683</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1430,13 +1430,13 @@
         <v>0.5904466970659539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.662603151651758</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7389731470930763</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8504292874902371</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8800058423220036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1458,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6998386560803014</v>
+        <v>0.704316434063726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.764636695837984</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8030336941496836</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6589463063347683</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6856200165077266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.000000000317502</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>1.000000000004745</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9999999999987209</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8800058421723181</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6856200165077266</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v/>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -1603,13 +1603,13 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1641,7 +1641,7 @@
         <v/>
       </c>
       <c r="H3" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -1650,7 +1650,7 @@
         <v/>
       </c>
       <c r="K3" t="n">
-        <v>-8.14540383296841e-10</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1666,23 +1666,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v/>
       </c>
       <c r="E4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -1691,7 +1691,7 @@
         <v/>
       </c>
       <c r="K4" t="n">
-        <v>8.14540383296841e-10</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1717,19 +1717,19 @@
         <v/>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v/>
       </c>
       <c r="I5" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K5" t="n">
         <v/>
@@ -1743,19 +1743,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v/>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F6" t="n">
         <v/>
@@ -1767,13 +1767,13 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v/>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1799,13 +1799,13 @@
         <v/>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
       </c>
       <c r="H7" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1849,10 +1849,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.9999999997502701</v>
       </c>
       <c r="J8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1896,7 +1896,7 @@
         <v/>
       </c>
       <c r="K9" t="n">
-        <v>-8.14540383296841e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1922,13 +1922,13 @@
         <v/>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
       </c>
       <c r="H10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -1937,7 +1937,7 @@
         <v/>
       </c>
       <c r="K10" t="n">
-        <v>-8.14540383296841e-10</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1972,10 +1972,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.605486891419448e-10</v>
+        <v/>
       </c>
       <c r="K11" t="n">
         <v/>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -2013,13 +2013,13 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v/>
+        <v>2.49729861741992e-10</v>
       </c>
       <c r="J12" t="n">
         <v/>
       </c>
       <c r="K12" t="n">
-        <v>8.14540383296841e-10</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2045,7 +2045,7 @@
         <v/>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -2054,7 +2054,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v/>
+        <v>0.9999999997502701</v>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -2071,25 +2071,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v/>
       </c>
       <c r="E14" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v/>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H14" t="n">
         <v/>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2136,10 +2136,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.605486891419448e-10</v>
+        <v/>
       </c>
       <c r="K15" t="n">
         <v/>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v/>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F16" t="n">
         <v/>
       </c>
       <c r="G16" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v/>
@@ -2189,12 +2189,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2206,7 +2206,7 @@
         <v/>
       </c>
       <c r="E17" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v/>
@@ -2218,7 +2218,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1.927046005166983e-10</v>
+        <v/>
       </c>
       <c r="J17" t="n">
         <v/>
@@ -2230,17 +2230,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2250,7 +2250,7 @@
         <v/>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -2259,7 +2259,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v/>
+        <v>0.9999999997502701</v>
       </c>
       <c r="J18" t="n">
         <v/>
@@ -2271,17 +2271,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2300,39 +2300,39 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v/>
+        <v>0.9999999997502701</v>
       </c>
       <c r="J19" t="n">
         <v/>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E20" t="n">
         <v/>
       </c>
       <c r="F20" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -2341,7 +2341,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v/>
@@ -2353,17 +2353,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2376,13 +2376,13 @@
         <v/>
       </c>
       <c r="G21" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J21" t="n">
         <v/>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2420,13 +2420,13 @@
         <v/>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I22" t="n">
-        <v/>
+        <v>-2.745683783644631e-10</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K22" t="n">
         <v/>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2458,10 +2458,10 @@
         <v/>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H23" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v/>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2502,16 +2502,16 @@
         <v/>
       </c>
       <c r="H24" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.927046005166983e-10</v>
+        <v/>
       </c>
       <c r="J24" t="n">
         <v/>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -2522,16 +2522,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E25" t="n">
         <v/>
@@ -2549,7 +2549,7 @@
         <v/>
       </c>
       <c r="J25" t="n">
-        <v/>
+        <v>-8.517834847788261e-10</v>
       </c>
       <c r="K25" t="n">
         <v/>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2578,13 +2578,13 @@
         <v/>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v/>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I26" t="n">
         <v/>
@@ -2604,12 +2604,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2628,10 +2628,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1.927046005166983e-10</v>
+        <v/>
       </c>
       <c r="J27" t="n">
-        <v/>
+        <v>8.51783484778826e-10</v>
       </c>
       <c r="K27" t="n">
         <v/>
@@ -2645,12 +2645,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2663,57 +2663,57 @@
         <v/>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H28" t="n">
         <v/>
       </c>
       <c r="I28" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v/>
       </c>
       <c r="K28" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v/>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F29" t="n">
         <v/>
       </c>
       <c r="G29" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v/>
       </c>
       <c r="J29" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v/>
@@ -2722,21 +2722,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v/>
@@ -2751,7 +2751,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1.143438023490858e-09</v>
+        <v/>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2763,17 +2763,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2786,13 +2786,13 @@
         <v/>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H31" t="n">
         <v/>
       </c>
       <c r="I31" t="n">
-        <v/>
+        <v>-2.745683783644631e-10</v>
       </c>
       <c r="J31" t="n">
         <v/>
@@ -2804,17 +2804,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2833,10 +2833,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>9.147504187926866e-10</v>
+        <v/>
       </c>
       <c r="J32" t="n">
-        <v/>
+        <v>-8.51783484778826e-10</v>
       </c>
       <c r="K32" t="n">
         <v/>
@@ -2845,17 +2845,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2886,30 +2886,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v/>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F34" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H34" t="n">
         <v/>
@@ -2921,23 +2921,23 @@
         <v/>
       </c>
       <c r="K34" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2953,36 +2953,36 @@
         <v/>
       </c>
       <c r="H35" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>9.147504187926866e-10</v>
+        <v/>
       </c>
       <c r="J35" t="n">
         <v/>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E36" t="n">
         <v/>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.286876046981716e-10</v>
+        <v/>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3009,17 +3009,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -3035,10 +3035,10 @@
         <v/>
       </c>
       <c r="H37" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J37" t="n">
         <v/>
@@ -3050,17 +3050,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3079,29 +3079,29 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>4.573752093963433e-10</v>
+        <v/>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K38" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3117,10 +3117,10 @@
         <v/>
       </c>
       <c r="H39" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.600813232887201e-09</v>
+        <v/>
       </c>
       <c r="J39" t="n">
         <v/>
@@ -3132,21 +3132,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E40" t="n">
         <v/>
@@ -3155,25 +3155,25 @@
         <v/>
       </c>
       <c r="G40" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.286876046981716e-10</v>
+        <v/>
       </c>
       <c r="J40" t="n">
         <v/>
       </c>
       <c r="K40" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v/>
@@ -3196,7 +3196,7 @@
         <v/>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H41" t="n">
         <v/>
@@ -3219,12 +3219,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3240,10 +3240,10 @@
         <v/>
       </c>
       <c r="H42" t="n">
-        <v/>
+        <v>0.9999999994109822</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.143438023490858e-09</v>
+        <v/>
       </c>
       <c r="J42" t="n">
         <v/>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3278,13 +3278,13 @@
         <v/>
       </c>
       <c r="G43" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v/>
+        <v>5.890178544451069e-10</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.573752093963433e-10</v>
+        <v/>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -3296,7 +3296,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3306,14 +3306,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v/>
       </c>
       <c r="E44" t="n">
-        <v>-2.06976125163649e-10</v>
+        <v/>
       </c>
       <c r="F44" t="n">
         <v/>
@@ -3331,23 +3331,23 @@
         <v/>
       </c>
       <c r="K44" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -3360,7 +3360,7 @@
         <v/>
       </c>
       <c r="G45" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v/>
@@ -3369,30 +3369,30 @@
         <v/>
       </c>
       <c r="J45" t="n">
-        <v>1.733664926682757e-10</v>
+        <v/>
       </c>
       <c r="K45" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v/>
@@ -3410,7 +3410,7 @@
         <v/>
       </c>
       <c r="J46" t="n">
-        <v>-1.733664926682757e-10</v>
+        <v/>
       </c>
       <c r="K46" t="n">
         <v/>
@@ -3419,7 +3419,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-3.112996773373592e-10</v>
+        <v/>
       </c>
       <c r="E47" t="n">
         <v/>
@@ -3451,7 +3451,7 @@
         <v/>
       </c>
       <c r="J47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v/>
@@ -3460,17 +3460,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3501,7 +3501,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3511,14 +3511,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E49" t="n">
-        <v>-2.06976125163649e-10</v>
+        <v/>
       </c>
       <c r="F49" t="n">
         <v/>
@@ -3533,16 +3533,16 @@
         <v/>
       </c>
       <c r="J49" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -3565,13 +3565,13 @@
         <v/>
       </c>
       <c r="G50" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I50" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -3583,7 +3583,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3593,11 +3593,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v/>
@@ -3615,7 +3615,7 @@
         <v/>
       </c>
       <c r="J51" t="n">
-        <v>-1.733664926682757e-10</v>
+        <v/>
       </c>
       <c r="K51" t="n">
         <v/>
@@ -3624,7 +3624,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3634,14 +3634,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v/>
       </c>
       <c r="E52" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v/>
@@ -3656,7 +3656,7 @@
         <v/>
       </c>
       <c r="J52" t="n">
-        <v>1.733664926682757e-10</v>
+        <v/>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -3665,7 +3665,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3675,23 +3675,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E53" t="n">
         <v/>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
       </c>
       <c r="H53" t="n">
-        <v/>
+        <v>0.9999999994109822</v>
       </c>
       <c r="I53" t="n">
         <v/>
@@ -3706,7 +3706,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3716,14 +3716,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F54" t="n">
         <v/>
@@ -3732,7 +3732,7 @@
         <v/>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -3747,7 +3747,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -3788,7 +3788,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3817,10 +3817,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K56" t="n">
         <v/>
@@ -3829,21 +3829,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v/>
@@ -3852,7 +3852,7 @@
         <v/>
       </c>
       <c r="G57" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v/>
@@ -3864,13 +3864,13 @@
         <v/>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-3.112996773373592e-10</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -3911,24 +3911,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.06976125163649e-10</v>
+        <v/>
       </c>
       <c r="F59" t="n">
         <v/>
@@ -3952,24 +3952,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v/>
       </c>
       <c r="E60" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v/>
@@ -3978,7 +3978,7 @@
         <v/>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I60" t="n">
         <v/>
@@ -3993,17 +3993,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4016,48 +4016,48 @@
         <v/>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H61" t="n">
         <v/>
       </c>
       <c r="I61" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v/>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v/>
       </c>
       <c r="E62" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v/>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H62" t="n">
         <v/>
@@ -4075,12 +4075,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4104,7 +4104,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>1.349536719647846e-10</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v/>
@@ -4116,17 +4116,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -4136,13 +4136,13 @@
         <v/>
       </c>
       <c r="F64" t="n">
-        <v>1.313549023544377e-10</v>
+        <v/>
       </c>
       <c r="G64" t="n">
         <v/>
       </c>
       <c r="H64" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v/>
@@ -4157,17 +4157,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4180,10 +4180,10 @@
         <v/>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H65" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v/>
@@ -4192,18 +4192,18 @@
         <v/>
       </c>
       <c r="K65" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v/>
@@ -4224,7 +4224,7 @@
         <v/>
       </c>
       <c r="H66" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v/>
@@ -4233,23 +4233,23 @@
         <v/>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -4262,7 +4262,7 @@
         <v/>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H67" t="n">
         <v/>
@@ -4271,7 +4271,7 @@
         <v/>
       </c>
       <c r="J67" t="n">
-        <v/>
+        <v>1.027880594027807e-10</v>
       </c>
       <c r="K67" t="n">
         <v/>
@@ -4280,33 +4280,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v/>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F68" t="n">
-        <v>1.313549023544377e-10</v>
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
       </c>
       <c r="H68" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v/>
@@ -4321,17 +4321,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -4341,33 +4341,33 @@
         <v/>
       </c>
       <c r="F69" t="n">
-        <v>-1.313549023544377e-10</v>
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
       </c>
       <c r="H69" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.349536719647846e-10</v>
+        <v/>
       </c>
       <c r="J69" t="n">
         <v/>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4391,10 +4391,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J70" t="n">
-        <v/>
+        <v>1.027880594027807e-10</v>
       </c>
       <c r="K70" t="n">
         <v/>
@@ -4403,21 +4403,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v/>
@@ -4429,13 +4429,13 @@
         <v/>
       </c>
       <c r="H71" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v/>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K71" t="n">
         <v/>
@@ -4444,27 +4444,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E72" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>1.000000000001931</v>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -4473,7 +4473,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>1.349536719647846e-10</v>
+        <v/>
       </c>
       <c r="J72" t="n">
         <v/>
@@ -4485,17 +4485,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4508,16 +4508,16 @@
         <v/>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H73" t="n">
         <v/>
       </c>
       <c r="I73" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v/>
@@ -4526,17 +4526,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4546,7 +4546,7 @@
         <v/>
       </c>
       <c r="F74" t="n">
-        <v>1.313549023544377e-10</v>
+        <v/>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -4555,36 +4555,36 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>1.349536719647846e-10</v>
+        <v/>
       </c>
       <c r="J74" t="n">
         <v/>
       </c>
       <c r="K74" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v/>
       </c>
       <c r="E75" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v/>
@@ -4596,7 +4596,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>-1.349536719647846e-10</v>
+        <v/>
       </c>
       <c r="J75" t="n">
         <v/>
@@ -4608,27 +4608,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E76" t="n">
         <v/>
       </c>
       <c r="F76" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -4649,12 +4649,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4678,10 +4678,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>1.349536719647846e-10</v>
+        <v/>
       </c>
       <c r="J77" t="n">
-        <v/>
+        <v>1.027880594027807e-10</v>
       </c>
       <c r="K77" t="n">
         <v/>
@@ -4690,12 +4690,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4710,13 +4710,13 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
       </c>
       <c r="H78" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v/>
@@ -4731,17 +4731,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4754,7 +4754,7 @@
         <v/>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H79" t="n">
         <v/>
@@ -4766,23 +4766,23 @@
         <v/>
       </c>
       <c r="K79" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4798,32 +4798,32 @@
         <v/>
       </c>
       <c r="H80" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K80" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4839,7 +4839,7 @@
         <v/>
       </c>
       <c r="H81" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v/>
@@ -4848,18 +4848,18 @@
         <v/>
       </c>
       <c r="K81" t="n">
-        <v>1.695293755295683e-09</v>
+        <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4871,13 +4871,13 @@
         <v/>
       </c>
       <c r="E82" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v/>
       </c>
       <c r="G82" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v/>
@@ -4889,36 +4889,36 @@
         <v/>
       </c>
       <c r="K82" t="n">
-        <v>1.695293755295683e-09</v>
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v/>
       </c>
       <c r="E83" t="n">
-        <v>-1.550406481419463e-10</v>
+        <v/>
       </c>
       <c r="F83" t="n">
         <v/>
       </c>
       <c r="G83" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v/>
@@ -4936,21 +4936,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.9999999999609136</v>
+        <v/>
       </c>
       <c r="E84" t="n">
         <v/>
@@ -4968,26 +4968,26 @@
         <v/>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K84" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4997,7 +4997,7 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>2.172419663250048e-09</v>
+        <v/>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -5006,7 +5006,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v/>
@@ -5018,7 +5018,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5028,17 +5028,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v/>
       </c>
       <c r="E86" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.172419663250048e-09</v>
+        <v/>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -5059,7 +5059,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -5100,27 +5100,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v/>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F88" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -5141,17 +5141,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -5161,7 +5161,7 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -5170,29 +5170,29 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v/>
       </c>
       <c r="K89" t="n">
-        <v>-1.695293755295683e-09</v>
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -5202,10 +5202,10 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v/>
+        <v>3.717254721030031e-10</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H90" t="n">
         <v/>
@@ -5217,23 +5217,23 @@
         <v/>
       </c>
       <c r="K90" t="n">
-        <v>1.695293755295683e-09</v>
+        <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -5243,38 +5243,38 @@
         <v/>
       </c>
       <c r="F91" t="n">
-        <v/>
+        <v>-3.717254721030031e-10</v>
       </c>
       <c r="G91" t="n">
         <v/>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I91" t="n">
         <v/>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5305,12 +5305,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5325,7 +5325,7 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>-2.172419663250048e-09</v>
+        <v>3.717254721030031e-10</v>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -5346,7 +5346,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5356,17 +5356,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v/>
       </c>
       <c r="E94" t="n">
-        <v>-1.550406481419463e-10</v>
+        <v/>
       </c>
       <c r="F94" t="n">
-        <v/>
+        <v>-3.717254721030031e-10</v>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -5387,7 +5387,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5397,11 +5397,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E95" t="n">
         <v/>
@@ -5416,7 +5416,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v/>
@@ -5428,7 +5428,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v/>
@@ -5460,7 +5460,7 @@
         <v/>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K96" t="n">
         <v/>
@@ -5469,7 +5469,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -5489,7 +5489,7 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>-1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -5504,23 +5504,23 @@
         <v/>
       </c>
       <c r="K97" t="n">
-        <v/>
+        <v>-2.325433590948772e-10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -5530,7 +5530,7 @@
         <v/>
       </c>
       <c r="F98" t="n">
-        <v>1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -5545,23 +5545,23 @@
         <v/>
       </c>
       <c r="K98" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -5571,7 +5571,7 @@
         <v/>
       </c>
       <c r="F99" t="n">
-        <v>-1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -5583,21 +5583,21 @@
         <v/>
       </c>
       <c r="J99" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.470192141701035e-10</v>
+        <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5627,13 +5627,13 @@
         <v/>
       </c>
       <c r="K100" t="n">
-        <v>1.470192141701035e-10</v>
+        <v>-2.325433590948772e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5643,17 +5643,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v/>
       </c>
       <c r="F101" t="n">
-        <v>1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -5674,7 +5674,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5684,14 +5684,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v/>
       </c>
       <c r="E102" t="n">
-        <v/>
+        <v>1.550407040841181e-10</v>
       </c>
       <c r="F102" t="n">
         <v/>
@@ -5700,10 +5700,10 @@
         <v/>
       </c>
       <c r="H102" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J102" t="n">
         <v/>
@@ -5715,7 +5715,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -5735,7 +5735,7 @@
         <v/>
       </c>
       <c r="F103" t="n">
-        <v>-1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -5750,13 +5750,13 @@
         <v/>
       </c>
       <c r="K103" t="n">
-        <v/>
+        <v>-2.325433590948772e-10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -5785,10 +5785,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J104" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v/>
@@ -5797,17 +5797,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -5817,10 +5817,10 @@
         <v/>
       </c>
       <c r="F105" t="n">
-        <v>-1.342368530721737e-10</v>
+        <v/>
       </c>
       <c r="G105" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v/>
@@ -5838,7 +5838,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5848,14 +5848,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v/>
       </c>
       <c r="E106" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v/>
@@ -5873,30 +5873,30 @@
         <v/>
       </c>
       <c r="K106" t="n">
-        <v>-1.470192141701035e-10</v>
+        <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F107" t="n">
         <v/>
@@ -5920,17 +5920,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5940,10 +5940,10 @@
         <v/>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G108" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v/>
@@ -5952,26 +5952,26 @@
         <v/>
       </c>
       <c r="J108" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v/>
+        <v>-2.325433590948772e-10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -5981,16 +5981,16 @@
         <v/>
       </c>
       <c r="F109" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H109" t="n">
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J109" t="n">
         <v/>
@@ -6002,17 +6002,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -6028,7 +6028,7 @@
         <v/>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I110" t="n">
         <v/>
@@ -6037,13 +6037,13 @@
         <v/>
       </c>
       <c r="K110" t="n">
-        <v/>
+        <v>2.325433590948772e-10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6053,11 +6053,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E111" t="n">
         <v/>
@@ -6084,27 +6084,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E112" t="n">
         <v/>
       </c>
       <c r="F112" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v/>
@@ -6125,12 +6125,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6142,7 +6142,7 @@
         <v/>
       </c>
       <c r="E113" t="n">
-        <v>3.040594897632497e-10</v>
+        <v>1.550407040841181e-10</v>
       </c>
       <c r="F113" t="n">
         <v/>
@@ -6151,7 +6151,7 @@
         <v/>
       </c>
       <c r="H113" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v/>
@@ -6166,17 +6166,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -6192,10 +6192,10 @@
         <v/>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I114" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v/>
@@ -6207,24 +6207,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v/>
       </c>
       <c r="E115" t="n">
-        <v>3.040594897632497e-10</v>
+        <v/>
       </c>
       <c r="F115" t="n">
         <v/>
@@ -6242,23 +6242,23 @@
         <v/>
       </c>
       <c r="K115" t="n">
-        <v/>
+        <v>0.9999999999178053</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i3</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -6268,7 +6268,7 @@
         <v/>
       </c>
       <c r="F116" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -6277,7 +6277,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J116" t="n">
         <v/>
@@ -6289,17 +6289,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -6309,7 +6309,7 @@
         <v/>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -6324,27 +6324,27 @@
         <v/>
       </c>
       <c r="K117" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E118" t="n">
         <v/>
@@ -6353,7 +6353,7 @@
         <v/>
       </c>
       <c r="G118" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v/>
@@ -6371,24 +6371,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v/>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F119" t="n">
         <v/>
@@ -6400,7 +6400,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v/>
@@ -6412,33 +6412,33 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v/>
       </c>
       <c r="E120" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v/>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I120" t="n">
         <v/>
@@ -6453,17 +6453,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -6476,7 +6476,7 @@
         <v/>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H121" t="n">
         <v/>
@@ -6488,23 +6488,23 @@
         <v/>
       </c>
       <c r="K121" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -6517,13 +6517,13 @@
         <v/>
       </c>
       <c r="G122" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J122" t="n">
         <v/>
@@ -6540,12 +6540,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -6555,7 +6555,7 @@
         <v/>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>-6.93508419005013e-10</v>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -6567,7 +6567,7 @@
         <v/>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K123" t="n">
         <v/>
@@ -6581,16 +6581,37 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v/>
+      </c>
+      <c r="E124" t="n">
+        <v/>
       </c>
       <c r="F124" t="n">
-        <v>1.757681139884026e-10</v>
+        <v>6.93508419005013e-10</v>
+      </c>
+      <c r="G124" t="n">
+        <v/>
+      </c>
+      <c r="H124" t="n">
+        <v/>
+      </c>
+      <c r="I124" t="n">
+        <v/>
+      </c>
+      <c r="J124" t="n">
+        <v/>
+      </c>
+      <c r="K124" t="n">
+        <v/>
       </c>
     </row>
     <row r="125">
@@ -6601,16 +6622,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1.0000000003113</v>
       </c>
       <c r="E125" t="n">
-        <v>6.696589492255773e-10</v>
+        <v/>
+      </c>
+      <c r="F125" t="n">
+        <v>-6.93508419005013e-10</v>
+      </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+      <c r="H125" t="n">
+        <v>1.000000000033946</v>
+      </c>
+      <c r="I125" t="n">
+        <v/>
+      </c>
+      <c r="J125" t="n">
+        <v/>
+      </c>
+      <c r="K125" t="n">
+        <v/>
       </c>
     </row>
     <row r="126">
@@ -6621,16 +6663,37 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v/>
       </c>
       <c r="F126" t="n">
-        <v>-1.757681139884026e-10</v>
+        <v>-6.93508419005013e-10</v>
+      </c>
+      <c r="G126" t="n">
+        <v/>
+      </c>
+      <c r="H126" t="n">
+        <v/>
+      </c>
+      <c r="I126" t="n">
+        <v/>
+      </c>
+      <c r="J126" t="n">
+        <v/>
+      </c>
+      <c r="K126" t="n">
+        <v/>
       </c>
     </row>
     <row r="127">
@@ -6646,11 +6709,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1.0000000003113</v>
+      </c>
+      <c r="E127" t="n">
+        <v/>
       </c>
       <c r="F127" t="n">
-        <v>-1.757681139884026e-10</v>
+        <v/>
+      </c>
+      <c r="G127" t="n">
+        <v/>
+      </c>
+      <c r="H127" t="n">
+        <v/>
+      </c>
+      <c r="I127" t="n">
+        <v/>
+      </c>
+      <c r="J127" t="n">
+        <v/>
+      </c>
+      <c r="K127" t="n">
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -6670,10 +6754,28 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="E128" t="n">
+        <v/>
       </c>
       <c r="F128" t="n">
-        <v>1.757681139884026e-10</v>
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v/>
+      </c>
+      <c r="H128" t="n">
+        <v/>
+      </c>
+      <c r="I128" t="n">
+        <v/>
+      </c>
+      <c r="J128" t="n">
+        <v/>
+      </c>
+      <c r="K128" t="n">
+        <v/>
       </c>
     </row>
     <row r="129">
@@ -6684,16 +6786,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v/>
+      </c>
+      <c r="E129" t="n">
+        <v/>
+      </c>
+      <c r="F129" t="n">
+        <v>6.93508419005013e-10</v>
+      </c>
+      <c r="G129" t="n">
+        <v/>
+      </c>
+      <c r="H129" t="n">
+        <v/>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>7.874678871182792e-10</v>
+        <v/>
+      </c>
+      <c r="K129" t="n">
+        <v/>
       </c>
     </row>
     <row r="130">
@@ -6704,7 +6827,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6712,8 +6835,29 @@
           <t>i2</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v/>
+      </c>
       <c r="E130" t="n">
         <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+      <c r="H130" t="n">
+        <v>1.000000000033946</v>
+      </c>
+      <c r="I130" t="n">
+        <v/>
+      </c>
+      <c r="J130" t="n">
+        <v/>
+      </c>
+      <c r="K130" t="n">
+        <v/>
       </c>
     </row>
     <row r="131">
@@ -6724,7 +6868,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6732,8 +6876,29 @@
           <t>i3</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v/>
+      </c>
+      <c r="E131" t="n">
+        <v/>
+      </c>
       <c r="F131" t="n">
-        <v>-1.757681139884026e-10</v>
+        <v>-6.93508419005013e-10</v>
+      </c>
+      <c r="G131" t="n">
+        <v/>
+      </c>
+      <c r="H131" t="n">
+        <v/>
+      </c>
+      <c r="I131" t="n">
+        <v/>
+      </c>
+      <c r="J131" t="n">
+        <v/>
+      </c>
+      <c r="K131" t="n">
+        <v/>
       </c>
     </row>
     <row r="132">
@@ -6744,16 +6909,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v/>
+      </c>
+      <c r="E132" t="n">
+        <v/>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v/>
+      </c>
+      <c r="I132" t="n">
+        <v/>
       </c>
       <c r="J132" t="n">
-        <v>-6.706382599908777e-10</v>
+        <v/>
+      </c>
+      <c r="K132" t="n">
+        <v/>
       </c>
     </row>
     <row r="133">
@@ -6769,14 +6955,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="D133" t="n">
         <v>1</v>
       </c>
+      <c r="E133" t="n">
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+      <c r="H133" t="n">
+        <v/>
+      </c>
+      <c r="I133" t="n">
+        <v/>
+      </c>
       <c r="J133" t="n">
-        <v>-7.874678871182792e-10</v>
+        <v/>
+      </c>
+      <c r="K133" t="n">
+        <v/>
       </c>
     </row>
     <row r="134">
@@ -6792,17 +6996,38 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v/>
+      </c>
+      <c r="E134" t="n">
+        <v/>
+      </c>
+      <c r="F134" t="n">
+        <v>6.93508419005013e-10</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="H134" t="n">
+        <v/>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6812,171 +7037,162 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>-6.696589492255773e-10</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>6.696589492255773e-10</v>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>7.874678871182792e-10</v>
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i4</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9999999998148286</v>
+          <t>i1</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>i2</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6984,120 +7200,114 @@
           <t>i4</t>
         </is>
       </c>
-      <c r="J143" t="n">
+      <c r="E143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>i3</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="n">
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>1.757681139884026e-10</v>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>i6</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-1.757681139884026e-10</v>
+          <t>i2</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>i8</t>
+          <t>i7</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i8</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>i1</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>-1.757681139884026e-10</v>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -7108,7 +7318,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7116,7 +7326,7 @@
           <t>i2</t>
         </is>
       </c>
-      <c r="G149" t="n">
+      <c r="J149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7128,7 +7338,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7137,7 +7347,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.757681139884026e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -7148,12 +7358,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>i5</t>
+          <t>i1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>i4</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -7168,7 +7378,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7176,7 +7386,7 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="H152" t="n">
+      <c r="J152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,15 +7398,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
+          <t>i4</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,19 +7418,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>1.851714540675802e-10</v>
+          <t>i1</t>
+        </is>
       </c>
       <c r="F154" t="n">
-        <v>-1.757681139884026e-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -7231,15 +7438,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>i6</t>
+          <t>i5</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>i7</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7251,7 +7458,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7259,8 +7466,8 @@
           <t>i1</t>
         </is>
       </c>
-      <c r="H156" t="n">
-        <v>1.340003711858929e-10</v>
+      <c r="E156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -7271,15 +7478,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>i7</t>
+          <t>i6</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>i4</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7296,10 +7503,10 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>i5</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7316,7 +7523,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>i1</t>
+          <t>i2</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -7336,11 +7543,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>i2</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>-1.851714540675802e-10</v>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -7359,10 +7566,10 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>i3</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
         <v>1</v>
       </c>
       <c r="J161" t="n">
@@ -12047,7 +12254,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3.038185622685728</v>
+        <v>8.540834524896283</v>
       </c>
     </row>
   </sheetData>
@@ -12071,7 +12278,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>602.7959999999998</v>
+        <v>639.5469999999987</v>
       </c>
     </row>
   </sheetData>
